--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768177005818026</v>
+        <v>0.9768177005818023</v>
       </c>
       <c r="D2">
-        <v>0.9992361001046469</v>
+        <v>0.9992361001046466</v>
       </c>
       <c r="E2">
-        <v>0.9845201081204124</v>
+        <v>0.9845201081204126</v>
       </c>
       <c r="F2">
-        <v>0.9781930406665997</v>
+        <v>0.9781930406665996</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03612996383849</v>
       </c>
       <c r="J2">
-        <v>0.9997146115502434</v>
+        <v>0.9997146115502432</v>
       </c>
       <c r="K2">
         <v>1.010706087534968</v>
       </c>
       <c r="L2">
-        <v>0.9961993998147103</v>
+        <v>0.9961993998147104</v>
       </c>
       <c r="M2">
-        <v>0.9899647798061091</v>
+        <v>0.989964779806109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.987252696095302</v>
+        <v>0.987252696095303</v>
       </c>
       <c r="D3">
-        <v>1.007506379086753</v>
+        <v>1.007506379086754</v>
       </c>
       <c r="E3">
-        <v>0.9937727906590511</v>
+        <v>0.9937727906590521</v>
       </c>
       <c r="F3">
-        <v>0.9894074711616851</v>
+        <v>0.9894074711616865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039822290597241</v>
+        <v>1.039822290597242</v>
       </c>
       <c r="J3">
-        <v>1.008097002376122</v>
+        <v>1.008097002376123</v>
       </c>
       <c r="K3">
-        <v>1.018044106955958</v>
+        <v>1.018044106955959</v>
       </c>
       <c r="L3">
-        <v>1.004485974793926</v>
+        <v>1.004485974793927</v>
       </c>
       <c r="M3">
-        <v>1.000177703861409</v>
+        <v>1.000177703861411</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937136379685925</v>
+        <v>0.993713637968592</v>
       </c>
       <c r="D4">
         <v>1.012629548662081</v>
       </c>
       <c r="E4">
-        <v>0.9995030022689261</v>
+        <v>0.9995030022689257</v>
       </c>
       <c r="F4">
-        <v>0.9963575497838612</v>
+        <v>0.9963575497838608</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9963657403999571</v>
+        <v>0.9963657403999588</v>
       </c>
       <c r="D5">
-        <v>1.014732933300572</v>
+        <v>1.014732933300573</v>
       </c>
       <c r="E5">
-        <v>1.001855356927453</v>
+        <v>1.001855356927454</v>
       </c>
       <c r="F5">
-        <v>0.9992120461465753</v>
+        <v>0.9992120461465768</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04301635844093</v>
       </c>
       <c r="J5">
-        <v>1.015404975429789</v>
+        <v>1.01540497542979</v>
       </c>
       <c r="K5">
-        <v>1.024436512987791</v>
+        <v>1.024436512987792</v>
       </c>
       <c r="L5">
-        <v>1.011707401412914</v>
+        <v>1.011707401412915</v>
       </c>
       <c r="M5">
-        <v>1.009095151183296</v>
+        <v>1.009095151183297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968074328425151</v>
+        <v>0.9968074328425176</v>
       </c>
       <c r="D6">
-        <v>1.015083259039348</v>
+        <v>1.01508325903935</v>
       </c>
       <c r="E6">
-        <v>1.002247137137407</v>
+        <v>1.002247137137409</v>
       </c>
       <c r="F6">
-        <v>0.9996875421306091</v>
+        <v>0.9996875421306115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043170367914404</v>
+        <v>1.043170367914405</v>
       </c>
       <c r="J6">
-        <v>1.015758843144655</v>
+        <v>1.015758843144658</v>
       </c>
       <c r="K6">
-        <v>1.024745908414492</v>
+        <v>1.024745908414494</v>
       </c>
       <c r="L6">
-        <v>1.012057002784492</v>
+        <v>1.012057002784495</v>
       </c>
       <c r="M6">
-        <v>1.009527322834618</v>
+        <v>1.009527322834621</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937493203680097</v>
+        <v>0.9937493203680091</v>
       </c>
       <c r="D7">
         <v>1.01265784700171</v>
       </c>
       <c r="E7">
-        <v>0.9995346510741769</v>
+        <v>0.9995346510741765</v>
       </c>
       <c r="F7">
-        <v>0.9963959488189373</v>
+        <v>0.996395948818937</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042102493576701</v>
       </c>
       <c r="J7">
-        <v>1.013308132239087</v>
+        <v>1.013308132239086</v>
       </c>
       <c r="K7">
-        <v>1.022602915170281</v>
+        <v>1.02260291517028</v>
       </c>
       <c r="L7">
         <v>1.009635692339413</v>
       </c>
       <c r="M7">
-        <v>1.006535050912383</v>
+        <v>1.006535050912382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804081898903413</v>
+        <v>0.9804081898903381</v>
       </c>
       <c r="D8">
-        <v>1.002081082130666</v>
+        <v>1.002081082130663</v>
       </c>
       <c r="E8">
-        <v>0.9877034323641141</v>
+        <v>0.9877034323641108</v>
       </c>
       <c r="F8">
-        <v>0.9820503539620131</v>
+        <v>0.9820503539620096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037404290550272</v>
+        <v>1.037404290550271</v>
       </c>
       <c r="J8">
-        <v>1.002600386158097</v>
+        <v>1.002600386158094</v>
       </c>
       <c r="K8">
-        <v>1.013232937437172</v>
+        <v>1.013232937437169</v>
       </c>
       <c r="L8">
-        <v>0.9990525856603834</v>
+        <v>0.9990525856603801</v>
       </c>
       <c r="M8">
-        <v>0.9934790822162368</v>
+        <v>0.9934790822162335</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.954367836595465</v>
+        <v>0.9543678365954662</v>
       </c>
       <c r="D9">
-        <v>0.981468687686031</v>
+        <v>0.9814686876860321</v>
       </c>
       <c r="E9">
-        <v>0.9646276322692846</v>
+        <v>0.9646276322692863</v>
       </c>
       <c r="F9">
-        <v>0.9541017050629106</v>
+        <v>0.9541017050629121</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02808454321743</v>
       </c>
       <c r="J9">
-        <v>0.9816416881618156</v>
+        <v>0.9816416881618166</v>
       </c>
       <c r="K9">
-        <v>0.9948697524458552</v>
+        <v>0.994869752445856</v>
       </c>
       <c r="L9">
-        <v>0.9783219141851145</v>
+        <v>0.9783219141851157</v>
       </c>
       <c r="M9">
-        <v>0.9679860980054122</v>
+        <v>0.9679860980054138</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,31 +728,31 @@
         <v>0.9347831591423421</v>
       </c>
       <c r="D10">
-        <v>0.9660077002122709</v>
+        <v>0.9660077002122707</v>
       </c>
       <c r="E10">
-        <v>0.9472959383141062</v>
+        <v>0.9472959383141061</v>
       </c>
       <c r="F10">
-        <v>0.9331133021983647</v>
+        <v>0.9331133021983643</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020980254747944</v>
+        <v>1.020980254747943</v>
       </c>
       <c r="J10">
-        <v>0.9658465465126924</v>
+        <v>0.9658465465126923</v>
       </c>
       <c r="K10">
-        <v>0.9810190713200712</v>
+        <v>0.9810190713200708</v>
       </c>
       <c r="L10">
-        <v>0.9626867703138217</v>
+        <v>0.9626867703138212</v>
       </c>
       <c r="M10">
-        <v>0.9488052106260367</v>
+        <v>0.9488052106260364</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256174069880424</v>
+        <v>0.9256174069880417</v>
       </c>
       <c r="D11">
-        <v>0.9587872872222674</v>
+        <v>0.9587872872222672</v>
       </c>
       <c r="E11">
-        <v>0.9391935743117193</v>
+        <v>0.9391935743117188</v>
       </c>
       <c r="F11">
-        <v>0.9232965707896457</v>
+        <v>0.9232965707896452</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.01763512411434</v>
       </c>
       <c r="J11">
-        <v>0.9584490062361039</v>
+        <v>0.9584490062361034</v>
       </c>
       <c r="K11">
-        <v>0.9745306401724181</v>
+        <v>0.974530640172418</v>
       </c>
       <c r="L11">
-        <v>0.9553611484235444</v>
+        <v>0.9553611484235437</v>
       </c>
       <c r="M11">
-        <v>0.9398260449156296</v>
+        <v>0.939826044915629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9220920769673437</v>
+        <v>0.9220920769673435</v>
       </c>
       <c r="D12">
         <v>0.9560130898621964</v>
       </c>
       <c r="E12">
-        <v>0.9360789684068316</v>
+        <v>0.9360789684068314</v>
       </c>
       <c r="F12">
         <v>0.919521575547646</v>
@@ -819,16 +819,16 @@
         <v>1.016345729533304</v>
       </c>
       <c r="J12">
-        <v>0.9556032303422739</v>
+        <v>0.9556032303422736</v>
       </c>
       <c r="K12">
-        <v>0.9720344830107387</v>
+        <v>0.9720344830107388</v>
       </c>
       <c r="L12">
-        <v>0.9525425701664282</v>
+        <v>0.9525425701664281</v>
       </c>
       <c r="M12">
-        <v>0.9363720582374109</v>
+        <v>0.9363720582374107</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9228540738107526</v>
+        <v>0.9228540738107485</v>
       </c>
       <c r="D13">
-        <v>0.9566125877964908</v>
+        <v>0.9566125877964875</v>
       </c>
       <c r="E13">
-        <v>0.9367521030478253</v>
+        <v>0.9367521030478215</v>
       </c>
       <c r="F13">
-        <v>0.9203375086917964</v>
+        <v>0.9203375086917928</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016624551923083</v>
+        <v>1.016624551923081</v>
       </c>
       <c r="J13">
-        <v>0.9562183613933615</v>
+        <v>0.9562183613933578</v>
       </c>
       <c r="K13">
-        <v>0.9725740445151253</v>
+        <v>0.9725740445151217</v>
       </c>
       <c r="L13">
-        <v>0.9531518436359961</v>
+        <v>0.9531518436359927</v>
       </c>
       <c r="M13">
-        <v>0.937118654481586</v>
+        <v>0.9371186544815824</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253285851573472</v>
+        <v>0.9253285851573426</v>
       </c>
       <c r="D14">
-        <v>0.9585599411845778</v>
+        <v>0.9585599411845739</v>
       </c>
       <c r="E14">
-        <v>0.9389383648969449</v>
+        <v>0.9389383648969407</v>
       </c>
       <c r="F14">
-        <v>0.9229872813296193</v>
+        <v>0.9229872813296149</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017529541734402</v>
+        <v>1.0175295417344</v>
       </c>
       <c r="J14">
-        <v>0.9582158677125916</v>
+        <v>0.9582158677125873</v>
       </c>
       <c r="K14">
-        <v>0.9743261453314742</v>
+        <v>0.9743261453314704</v>
       </c>
       <c r="L14">
-        <v>0.9551302475918436</v>
+        <v>0.9551302475918396</v>
       </c>
       <c r="M14">
-        <v>0.9395430770050057</v>
+        <v>0.9395430770050016</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9268366004313323</v>
+        <v>0.9268366004313298</v>
       </c>
       <c r="D15">
-        <v>0.9597470966607932</v>
+        <v>0.9597470966607909</v>
       </c>
       <c r="E15">
-        <v>0.9402709528743258</v>
+        <v>0.9402709528743234</v>
       </c>
       <c r="F15">
-        <v>0.9246021911242944</v>
+        <v>0.9246021911242919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018080704298183</v>
+        <v>1.018080704298182</v>
       </c>
       <c r="J15">
-        <v>0.9594331258012173</v>
+        <v>0.9594331258012149</v>
       </c>
       <c r="K15">
-        <v>0.9753938460465778</v>
+        <v>0.9753938460465759</v>
       </c>
       <c r="L15">
-        <v>0.9563358032763877</v>
+        <v>0.9563358032763852</v>
       </c>
       <c r="M15">
-        <v>0.9410205099761775</v>
+        <v>0.941020509976175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9353756013853041</v>
+        <v>0.9353756013853071</v>
       </c>
       <c r="D16">
-        <v>0.9664747639063161</v>
+        <v>0.9664747639063188</v>
       </c>
       <c r="E16">
-        <v>0.947819859097651</v>
+        <v>0.9478198590976539</v>
       </c>
       <c r="F16">
-        <v>0.9337479293049047</v>
+        <v>0.9337479293049074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021196078779244</v>
+        <v>1.021196078779246</v>
       </c>
       <c r="J16">
-        <v>0.9663246098072268</v>
+        <v>0.9663246098072296</v>
       </c>
       <c r="K16">
-        <v>0.9814383618136238</v>
+        <v>0.9814383618136263</v>
       </c>
       <c r="L16">
-        <v>0.9631601231155067</v>
+        <v>0.9631601231155096</v>
       </c>
       <c r="M16">
-        <v>0.9493855391041349</v>
+        <v>0.9493855391041377</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9405371651770542</v>
+        <v>0.9405371651770554</v>
       </c>
       <c r="D17">
-        <v>0.9705457514263375</v>
+        <v>0.9705457514263385</v>
       </c>
       <c r="E17">
-        <v>0.9523854691558854</v>
+        <v>0.9523854691558865</v>
       </c>
       <c r="F17">
-        <v>0.9392776680733352</v>
+        <v>0.9392776680733367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023074192120679</v>
+        <v>1.02307419212068</v>
       </c>
       <c r="J17">
-        <v>0.9704891003890522</v>
+        <v>0.9704891003890531</v>
       </c>
       <c r="K17">
-        <v>0.9850907116810576</v>
+        <v>0.9850907116810586</v>
       </c>
       <c r="L17">
-        <v>0.967283244032031</v>
+        <v>0.967283244032032</v>
       </c>
       <c r="M17">
-        <v>0.9544412937189078</v>
+        <v>0.9544412937189093</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9434830865423983</v>
+        <v>0.943483086542397</v>
       </c>
       <c r="D18">
-        <v>0.9728706112185264</v>
+        <v>0.9728706112185251</v>
       </c>
       <c r="E18">
-        <v>0.9549920533497287</v>
+        <v>0.9549920533497274</v>
       </c>
       <c r="F18">
-        <v>0.942434285734435</v>
+        <v>0.9424342857344338</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.024144226161358</v>
       </c>
       <c r="J18">
-        <v>0.9728654420399003</v>
+        <v>0.9728654420398986</v>
       </c>
       <c r="K18">
-        <v>0.9871746626435283</v>
+        <v>0.9871746626435274</v>
       </c>
       <c r="L18">
-        <v>0.9696357029661221</v>
+        <v>0.9696357029661211</v>
       </c>
       <c r="M18">
-        <v>0.957326610225199</v>
+        <v>0.957326610225198</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9444770596652745</v>
+        <v>0.9444770596652734</v>
       </c>
       <c r="D19">
-        <v>0.9736552521748096</v>
+        <v>0.9736552521748085</v>
       </c>
       <c r="E19">
-        <v>0.9558716578486003</v>
+        <v>0.9558716578485996</v>
       </c>
       <c r="F19">
-        <v>0.943499449213886</v>
+        <v>0.9434994492138854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024504936421573</v>
+        <v>1.024504936421572</v>
       </c>
       <c r="J19">
-        <v>0.9736671423423391</v>
+        <v>0.9736671423423382</v>
       </c>
       <c r="K19">
-        <v>0.9878776906151748</v>
+        <v>0.9878776906151738</v>
       </c>
       <c r="L19">
-        <v>0.9704292995959641</v>
+        <v>0.9704292995959636</v>
       </c>
       <c r="M19">
-        <v>0.9583000998852522</v>
+        <v>0.9583000998852517</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9399901880089936</v>
+        <v>0.939990188008995</v>
       </c>
       <c r="D20">
-        <v>0.9701141966542657</v>
+        <v>0.9701141966542671</v>
       </c>
       <c r="E20">
-        <v>0.9519015602904912</v>
+        <v>0.9519015602904922</v>
       </c>
       <c r="F20">
-        <v>0.9386916173059556</v>
+        <v>0.9386916173059573</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022875361073734</v>
       </c>
       <c r="J20">
-        <v>0.9700478356294546</v>
+        <v>0.9700478356294561</v>
       </c>
       <c r="K20">
-        <v>0.9847037279281631</v>
+        <v>0.9847037279281645</v>
       </c>
       <c r="L20">
-        <v>0.9668463916918406</v>
+        <v>0.9668463916918417</v>
       </c>
       <c r="M20">
-        <v>0.9539055520855506</v>
+        <v>0.9539055520855522</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9246034030835344</v>
+        <v>0.9246034030835318</v>
       </c>
       <c r="D21">
-        <v>0.9579891632417638</v>
+        <v>0.957989163241762</v>
       </c>
       <c r="E21">
-        <v>0.938297606865555</v>
+        <v>0.9382976068655525</v>
       </c>
       <c r="F21">
-        <v>0.9222107192647486</v>
+        <v>0.9222107192647462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017264398768097</v>
+        <v>1.017264398768096</v>
       </c>
       <c r="J21">
-        <v>0.9576304893047908</v>
+        <v>0.9576304893047884</v>
       </c>
       <c r="K21">
-        <v>0.9738126859649561</v>
+        <v>0.9738126859649543</v>
       </c>
       <c r="L21">
-        <v>0.9545504801589619</v>
+        <v>0.9545504801589594</v>
       </c>
       <c r="M21">
-        <v>0.9388325861228928</v>
+        <v>0.9388325861228908</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9142178379181701</v>
+        <v>0.9142178379181677</v>
       </c>
       <c r="D22">
-        <v>0.9498228107583437</v>
+        <v>0.9498228107583415</v>
       </c>
       <c r="E22">
-        <v>0.9291258399705387</v>
+        <v>0.9291258399705368</v>
       </c>
       <c r="F22">
-        <v>0.9110907478280413</v>
+        <v>0.911090747828039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01346086514903</v>
+        <v>1.013460865149028</v>
       </c>
       <c r="J22">
-        <v>0.9492462141981928</v>
+        <v>0.9492462141981907</v>
       </c>
       <c r="K22">
-        <v>0.96645842432387</v>
+        <v>0.9664584243238679</v>
       </c>
       <c r="L22">
-        <v>0.9462454208192655</v>
+        <v>0.9462454208192637</v>
       </c>
       <c r="M22">
-        <v>0.9286562989403347</v>
+        <v>0.9286562989403325</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9197981012863141</v>
+        <v>0.9197981012863181</v>
       </c>
       <c r="D23">
-        <v>0.9542087954674907</v>
+        <v>0.9542087954674944</v>
       </c>
       <c r="E23">
-        <v>0.9340527976131249</v>
+        <v>0.9340527976131286</v>
       </c>
       <c r="F23">
-        <v>0.9170653129808254</v>
+        <v>0.9170653129808294</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015505954176638</v>
+        <v>1.01550595417664</v>
       </c>
       <c r="J23">
-        <v>0.9537513365761501</v>
+        <v>0.9537513365761539</v>
       </c>
       <c r="K23">
-        <v>0.9704100918531813</v>
+        <v>0.9704100918531845</v>
       </c>
       <c r="L23">
-        <v>0.9507082411203007</v>
+        <v>0.9507082411203044</v>
       </c>
       <c r="M23">
-        <v>0.9341243778393524</v>
+        <v>0.934124377839356</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9402375421910241</v>
+        <v>0.9402375421910285</v>
       </c>
       <c r="D24">
-        <v>0.9703093502360447</v>
+        <v>0.9703093502360487</v>
       </c>
       <c r="E24">
-        <v>0.9521203912412108</v>
+        <v>0.9521203912412145</v>
       </c>
       <c r="F24">
-        <v>0.9389566395935504</v>
+        <v>0.9389566395935542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022965282404183</v>
+        <v>1.022965282404186</v>
       </c>
       <c r="J24">
-        <v>0.9702473861169092</v>
+        <v>0.9702473861169135</v>
       </c>
       <c r="K24">
-        <v>0.9848787317309624</v>
+        <v>0.9848787317309663</v>
       </c>
       <c r="L24">
-        <v>0.9670439476383174</v>
+        <v>0.9670439476383211</v>
       </c>
       <c r="M24">
-        <v>0.9541478259971721</v>
+        <v>0.9541478259971757</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614473785280905</v>
+        <v>0.9614473785280916</v>
       </c>
       <c r="D25">
-        <v>0.9870671693062045</v>
+        <v>0.9870671693062056</v>
       </c>
       <c r="E25">
-        <v>0.970898229726283</v>
+        <v>0.9708982297262838</v>
       </c>
       <c r="F25">
-        <v>0.9616944417703984</v>
+        <v>0.9616944417703998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030634690815808</v>
+        <v>1.030634690815809</v>
       </c>
       <c r="J25">
-        <v>0.9873456891700887</v>
+        <v>0.9873456891700897</v>
       </c>
       <c r="K25">
-        <v>0.999869624306776</v>
+        <v>0.9998696243067771</v>
       </c>
       <c r="L25">
-        <v>0.9839657627487839</v>
+        <v>0.9839657627487848</v>
       </c>
       <c r="M25">
-        <v>0.9749180093482028</v>
+        <v>0.9749180093482039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768177005818023</v>
+        <v>0.9768177005818026</v>
       </c>
       <c r="D2">
-        <v>0.9992361001046466</v>
+        <v>0.9992361001046469</v>
       </c>
       <c r="E2">
-        <v>0.9845201081204126</v>
+        <v>0.9845201081204124</v>
       </c>
       <c r="F2">
-        <v>0.9781930406665996</v>
+        <v>0.9781930406665997</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.03612996383849</v>
       </c>
       <c r="J2">
-        <v>0.9997146115502432</v>
+        <v>0.9997146115502434</v>
       </c>
       <c r="K2">
         <v>1.010706087534968</v>
       </c>
       <c r="L2">
-        <v>0.9961993998147104</v>
+        <v>0.9961993998147103</v>
       </c>
       <c r="M2">
-        <v>0.989964779806109</v>
+        <v>0.9899647798061091</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.987252696095303</v>
+        <v>0.987252696095302</v>
       </c>
       <c r="D3">
-        <v>1.007506379086754</v>
+        <v>1.007506379086753</v>
       </c>
       <c r="E3">
-        <v>0.9937727906590521</v>
+        <v>0.9937727906590511</v>
       </c>
       <c r="F3">
-        <v>0.9894074711616865</v>
+        <v>0.9894074711616851</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039822290597242</v>
+        <v>1.039822290597241</v>
       </c>
       <c r="J3">
-        <v>1.008097002376123</v>
+        <v>1.008097002376122</v>
       </c>
       <c r="K3">
-        <v>1.018044106955959</v>
+        <v>1.018044106955958</v>
       </c>
       <c r="L3">
-        <v>1.004485974793927</v>
+        <v>1.004485974793926</v>
       </c>
       <c r="M3">
-        <v>1.000177703861411</v>
+        <v>1.000177703861409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.993713637968592</v>
+        <v>0.9937136379685925</v>
       </c>
       <c r="D4">
         <v>1.012629548662081</v>
       </c>
       <c r="E4">
-        <v>0.9995030022689257</v>
+        <v>0.9995030022689261</v>
       </c>
       <c r="F4">
-        <v>0.9963575497838608</v>
+        <v>0.9963575497838612</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9963657403999588</v>
+        <v>0.9963657403999571</v>
       </c>
       <c r="D5">
-        <v>1.014732933300573</v>
+        <v>1.014732933300572</v>
       </c>
       <c r="E5">
-        <v>1.001855356927454</v>
+        <v>1.001855356927453</v>
       </c>
       <c r="F5">
-        <v>0.9992120461465768</v>
+        <v>0.9992120461465753</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.04301635844093</v>
       </c>
       <c r="J5">
-        <v>1.01540497542979</v>
+        <v>1.015404975429789</v>
       </c>
       <c r="K5">
-        <v>1.024436512987792</v>
+        <v>1.024436512987791</v>
       </c>
       <c r="L5">
-        <v>1.011707401412915</v>
+        <v>1.011707401412914</v>
       </c>
       <c r="M5">
-        <v>1.009095151183297</v>
+        <v>1.009095151183296</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968074328425176</v>
+        <v>0.9968074328425151</v>
       </c>
       <c r="D6">
-        <v>1.01508325903935</v>
+        <v>1.015083259039348</v>
       </c>
       <c r="E6">
-        <v>1.002247137137409</v>
+        <v>1.002247137137407</v>
       </c>
       <c r="F6">
-        <v>0.9996875421306115</v>
+        <v>0.9996875421306091</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043170367914405</v>
+        <v>1.043170367914404</v>
       </c>
       <c r="J6">
-        <v>1.015758843144658</v>
+        <v>1.015758843144655</v>
       </c>
       <c r="K6">
-        <v>1.024745908414494</v>
+        <v>1.024745908414492</v>
       </c>
       <c r="L6">
-        <v>1.012057002784495</v>
+        <v>1.012057002784492</v>
       </c>
       <c r="M6">
-        <v>1.009527322834621</v>
+        <v>1.009527322834618</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937493203680091</v>
+        <v>0.9937493203680097</v>
       </c>
       <c r="D7">
         <v>1.01265784700171</v>
       </c>
       <c r="E7">
-        <v>0.9995346510741765</v>
+        <v>0.9995346510741769</v>
       </c>
       <c r="F7">
-        <v>0.996395948818937</v>
+        <v>0.9963959488189373</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.042102493576701</v>
       </c>
       <c r="J7">
-        <v>1.013308132239086</v>
+        <v>1.013308132239087</v>
       </c>
       <c r="K7">
-        <v>1.02260291517028</v>
+        <v>1.022602915170281</v>
       </c>
       <c r="L7">
         <v>1.009635692339413</v>
       </c>
       <c r="M7">
-        <v>1.006535050912382</v>
+        <v>1.006535050912383</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804081898903381</v>
+        <v>0.9804081898903413</v>
       </c>
       <c r="D8">
-        <v>1.002081082130663</v>
+        <v>1.002081082130666</v>
       </c>
       <c r="E8">
-        <v>0.9877034323641108</v>
+        <v>0.9877034323641141</v>
       </c>
       <c r="F8">
-        <v>0.9820503539620096</v>
+        <v>0.9820503539620131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037404290550271</v>
+        <v>1.037404290550272</v>
       </c>
       <c r="J8">
-        <v>1.002600386158094</v>
+        <v>1.002600386158097</v>
       </c>
       <c r="K8">
-        <v>1.013232937437169</v>
+        <v>1.013232937437172</v>
       </c>
       <c r="L8">
-        <v>0.9990525856603801</v>
+        <v>0.9990525856603834</v>
       </c>
       <c r="M8">
-        <v>0.9934790822162335</v>
+        <v>0.9934790822162368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9543678365954662</v>
+        <v>0.954367836595465</v>
       </c>
       <c r="D9">
-        <v>0.9814686876860321</v>
+        <v>0.981468687686031</v>
       </c>
       <c r="E9">
-        <v>0.9646276322692863</v>
+        <v>0.9646276322692846</v>
       </c>
       <c r="F9">
-        <v>0.9541017050629121</v>
+        <v>0.9541017050629106</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02808454321743</v>
       </c>
       <c r="J9">
-        <v>0.9816416881618166</v>
+        <v>0.9816416881618156</v>
       </c>
       <c r="K9">
-        <v>0.994869752445856</v>
+        <v>0.9948697524458552</v>
       </c>
       <c r="L9">
-        <v>0.9783219141851157</v>
+        <v>0.9783219141851145</v>
       </c>
       <c r="M9">
-        <v>0.9679860980054138</v>
+        <v>0.9679860980054122</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,31 +728,31 @@
         <v>0.9347831591423421</v>
       </c>
       <c r="D10">
-        <v>0.9660077002122707</v>
+        <v>0.9660077002122709</v>
       </c>
       <c r="E10">
-        <v>0.9472959383141061</v>
+        <v>0.9472959383141062</v>
       </c>
       <c r="F10">
-        <v>0.9331133021983643</v>
+        <v>0.9331133021983647</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020980254747943</v>
+        <v>1.020980254747944</v>
       </c>
       <c r="J10">
-        <v>0.9658465465126923</v>
+        <v>0.9658465465126924</v>
       </c>
       <c r="K10">
-        <v>0.9810190713200708</v>
+        <v>0.9810190713200712</v>
       </c>
       <c r="L10">
-        <v>0.9626867703138212</v>
+        <v>0.9626867703138217</v>
       </c>
       <c r="M10">
-        <v>0.9488052106260364</v>
+        <v>0.9488052106260367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256174069880417</v>
+        <v>0.9256174069880424</v>
       </c>
       <c r="D11">
-        <v>0.9587872872222672</v>
+        <v>0.9587872872222674</v>
       </c>
       <c r="E11">
-        <v>0.9391935743117188</v>
+        <v>0.9391935743117193</v>
       </c>
       <c r="F11">
-        <v>0.9232965707896452</v>
+        <v>0.9232965707896457</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.01763512411434</v>
       </c>
       <c r="J11">
-        <v>0.9584490062361034</v>
+        <v>0.9584490062361039</v>
       </c>
       <c r="K11">
-        <v>0.974530640172418</v>
+        <v>0.9745306401724181</v>
       </c>
       <c r="L11">
-        <v>0.9553611484235437</v>
+        <v>0.9553611484235444</v>
       </c>
       <c r="M11">
-        <v>0.939826044915629</v>
+        <v>0.9398260449156296</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,13 +801,13 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9220920769673435</v>
+        <v>0.9220920769673437</v>
       </c>
       <c r="D12">
         <v>0.9560130898621964</v>
       </c>
       <c r="E12">
-        <v>0.9360789684068314</v>
+        <v>0.9360789684068316</v>
       </c>
       <c r="F12">
         <v>0.919521575547646</v>
@@ -819,16 +819,16 @@
         <v>1.016345729533304</v>
       </c>
       <c r="J12">
-        <v>0.9556032303422736</v>
+        <v>0.9556032303422739</v>
       </c>
       <c r="K12">
-        <v>0.9720344830107388</v>
+        <v>0.9720344830107387</v>
       </c>
       <c r="L12">
-        <v>0.9525425701664281</v>
+        <v>0.9525425701664282</v>
       </c>
       <c r="M12">
-        <v>0.9363720582374107</v>
+        <v>0.9363720582374109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9228540738107485</v>
+        <v>0.9228540738107526</v>
       </c>
       <c r="D13">
-        <v>0.9566125877964875</v>
+        <v>0.9566125877964908</v>
       </c>
       <c r="E13">
-        <v>0.9367521030478215</v>
+        <v>0.9367521030478253</v>
       </c>
       <c r="F13">
-        <v>0.9203375086917928</v>
+        <v>0.9203375086917964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016624551923081</v>
+        <v>1.016624551923083</v>
       </c>
       <c r="J13">
-        <v>0.9562183613933578</v>
+        <v>0.9562183613933615</v>
       </c>
       <c r="K13">
-        <v>0.9725740445151217</v>
+        <v>0.9725740445151253</v>
       </c>
       <c r="L13">
-        <v>0.9531518436359927</v>
+        <v>0.9531518436359961</v>
       </c>
       <c r="M13">
-        <v>0.9371186544815824</v>
+        <v>0.937118654481586</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253285851573426</v>
+        <v>0.9253285851573472</v>
       </c>
       <c r="D14">
-        <v>0.9585599411845739</v>
+        <v>0.9585599411845778</v>
       </c>
       <c r="E14">
-        <v>0.9389383648969407</v>
+        <v>0.9389383648969449</v>
       </c>
       <c r="F14">
-        <v>0.9229872813296149</v>
+        <v>0.9229872813296193</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0175295417344</v>
+        <v>1.017529541734402</v>
       </c>
       <c r="J14">
-        <v>0.9582158677125873</v>
+        <v>0.9582158677125916</v>
       </c>
       <c r="K14">
-        <v>0.9743261453314704</v>
+        <v>0.9743261453314742</v>
       </c>
       <c r="L14">
-        <v>0.9551302475918396</v>
+        <v>0.9551302475918436</v>
       </c>
       <c r="M14">
-        <v>0.9395430770050016</v>
+        <v>0.9395430770050057</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9268366004313298</v>
+        <v>0.9268366004313323</v>
       </c>
       <c r="D15">
-        <v>0.9597470966607909</v>
+        <v>0.9597470966607932</v>
       </c>
       <c r="E15">
-        <v>0.9402709528743234</v>
+        <v>0.9402709528743258</v>
       </c>
       <c r="F15">
-        <v>0.9246021911242919</v>
+        <v>0.9246021911242944</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018080704298182</v>
+        <v>1.018080704298183</v>
       </c>
       <c r="J15">
-        <v>0.9594331258012149</v>
+        <v>0.9594331258012173</v>
       </c>
       <c r="K15">
-        <v>0.9753938460465759</v>
+        <v>0.9753938460465778</v>
       </c>
       <c r="L15">
-        <v>0.9563358032763852</v>
+        <v>0.9563358032763877</v>
       </c>
       <c r="M15">
-        <v>0.941020509976175</v>
+        <v>0.9410205099761775</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9353756013853071</v>
+        <v>0.9353756013853041</v>
       </c>
       <c r="D16">
-        <v>0.9664747639063188</v>
+        <v>0.9664747639063161</v>
       </c>
       <c r="E16">
-        <v>0.9478198590976539</v>
+        <v>0.947819859097651</v>
       </c>
       <c r="F16">
-        <v>0.9337479293049074</v>
+        <v>0.9337479293049047</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021196078779246</v>
+        <v>1.021196078779244</v>
       </c>
       <c r="J16">
-        <v>0.9663246098072296</v>
+        <v>0.9663246098072268</v>
       </c>
       <c r="K16">
-        <v>0.9814383618136263</v>
+        <v>0.9814383618136238</v>
       </c>
       <c r="L16">
-        <v>0.9631601231155096</v>
+        <v>0.9631601231155067</v>
       </c>
       <c r="M16">
-        <v>0.9493855391041377</v>
+        <v>0.9493855391041349</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9405371651770554</v>
+        <v>0.9405371651770542</v>
       </c>
       <c r="D17">
-        <v>0.9705457514263385</v>
+        <v>0.9705457514263375</v>
       </c>
       <c r="E17">
-        <v>0.9523854691558865</v>
+        <v>0.9523854691558854</v>
       </c>
       <c r="F17">
-        <v>0.9392776680733367</v>
+        <v>0.9392776680733352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02307419212068</v>
+        <v>1.023074192120679</v>
       </c>
       <c r="J17">
-        <v>0.9704891003890531</v>
+        <v>0.9704891003890522</v>
       </c>
       <c r="K17">
-        <v>0.9850907116810586</v>
+        <v>0.9850907116810576</v>
       </c>
       <c r="L17">
-        <v>0.967283244032032</v>
+        <v>0.967283244032031</v>
       </c>
       <c r="M17">
-        <v>0.9544412937189093</v>
+        <v>0.9544412937189078</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.943483086542397</v>
+        <v>0.9434830865423983</v>
       </c>
       <c r="D18">
-        <v>0.9728706112185251</v>
+        <v>0.9728706112185264</v>
       </c>
       <c r="E18">
-        <v>0.9549920533497274</v>
+        <v>0.9549920533497287</v>
       </c>
       <c r="F18">
-        <v>0.9424342857344338</v>
+        <v>0.942434285734435</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.024144226161358</v>
       </c>
       <c r="J18">
-        <v>0.9728654420398986</v>
+        <v>0.9728654420399003</v>
       </c>
       <c r="K18">
-        <v>0.9871746626435274</v>
+        <v>0.9871746626435283</v>
       </c>
       <c r="L18">
-        <v>0.9696357029661211</v>
+        <v>0.9696357029661221</v>
       </c>
       <c r="M18">
-        <v>0.957326610225198</v>
+        <v>0.957326610225199</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9444770596652734</v>
+        <v>0.9444770596652745</v>
       </c>
       <c r="D19">
-        <v>0.9736552521748085</v>
+        <v>0.9736552521748096</v>
       </c>
       <c r="E19">
-        <v>0.9558716578485996</v>
+        <v>0.9558716578486003</v>
       </c>
       <c r="F19">
-        <v>0.9434994492138854</v>
+        <v>0.943499449213886</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024504936421572</v>
+        <v>1.024504936421573</v>
       </c>
       <c r="J19">
-        <v>0.9736671423423382</v>
+        <v>0.9736671423423391</v>
       </c>
       <c r="K19">
-        <v>0.9878776906151738</v>
+        <v>0.9878776906151748</v>
       </c>
       <c r="L19">
-        <v>0.9704292995959636</v>
+        <v>0.9704292995959641</v>
       </c>
       <c r="M19">
-        <v>0.9583000998852517</v>
+        <v>0.9583000998852522</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.939990188008995</v>
+        <v>0.9399901880089936</v>
       </c>
       <c r="D20">
-        <v>0.9701141966542671</v>
+        <v>0.9701141966542657</v>
       </c>
       <c r="E20">
-        <v>0.9519015602904922</v>
+        <v>0.9519015602904912</v>
       </c>
       <c r="F20">
-        <v>0.9386916173059573</v>
+        <v>0.9386916173059556</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.022875361073734</v>
       </c>
       <c r="J20">
-        <v>0.9700478356294561</v>
+        <v>0.9700478356294546</v>
       </c>
       <c r="K20">
-        <v>0.9847037279281645</v>
+        <v>0.9847037279281631</v>
       </c>
       <c r="L20">
-        <v>0.9668463916918417</v>
+        <v>0.9668463916918406</v>
       </c>
       <c r="M20">
-        <v>0.9539055520855522</v>
+        <v>0.9539055520855506</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9246034030835318</v>
+        <v>0.9246034030835344</v>
       </c>
       <c r="D21">
-        <v>0.957989163241762</v>
+        <v>0.9579891632417638</v>
       </c>
       <c r="E21">
-        <v>0.9382976068655525</v>
+        <v>0.938297606865555</v>
       </c>
       <c r="F21">
-        <v>0.9222107192647462</v>
+        <v>0.9222107192647486</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017264398768096</v>
+        <v>1.017264398768097</v>
       </c>
       <c r="J21">
-        <v>0.9576304893047884</v>
+        <v>0.9576304893047908</v>
       </c>
       <c r="K21">
-        <v>0.9738126859649543</v>
+        <v>0.9738126859649561</v>
       </c>
       <c r="L21">
-        <v>0.9545504801589594</v>
+        <v>0.9545504801589619</v>
       </c>
       <c r="M21">
-        <v>0.9388325861228908</v>
+        <v>0.9388325861228928</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9142178379181677</v>
+        <v>0.9142178379181701</v>
       </c>
       <c r="D22">
-        <v>0.9498228107583415</v>
+        <v>0.9498228107583437</v>
       </c>
       <c r="E22">
-        <v>0.9291258399705368</v>
+        <v>0.9291258399705387</v>
       </c>
       <c r="F22">
-        <v>0.911090747828039</v>
+        <v>0.9110907478280413</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013460865149028</v>
+        <v>1.01346086514903</v>
       </c>
       <c r="J22">
-        <v>0.9492462141981907</v>
+        <v>0.9492462141981928</v>
       </c>
       <c r="K22">
-        <v>0.9664584243238679</v>
+        <v>0.96645842432387</v>
       </c>
       <c r="L22">
-        <v>0.9462454208192637</v>
+        <v>0.9462454208192655</v>
       </c>
       <c r="M22">
-        <v>0.9286562989403325</v>
+        <v>0.9286562989403347</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9197981012863181</v>
+        <v>0.9197981012863141</v>
       </c>
       <c r="D23">
-        <v>0.9542087954674944</v>
+        <v>0.9542087954674907</v>
       </c>
       <c r="E23">
-        <v>0.9340527976131286</v>
+        <v>0.9340527976131249</v>
       </c>
       <c r="F23">
-        <v>0.9170653129808294</v>
+        <v>0.9170653129808254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01550595417664</v>
+        <v>1.015505954176638</v>
       </c>
       <c r="J23">
-        <v>0.9537513365761539</v>
+        <v>0.9537513365761501</v>
       </c>
       <c r="K23">
-        <v>0.9704100918531845</v>
+        <v>0.9704100918531813</v>
       </c>
       <c r="L23">
-        <v>0.9507082411203044</v>
+        <v>0.9507082411203007</v>
       </c>
       <c r="M23">
-        <v>0.934124377839356</v>
+        <v>0.9341243778393524</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9402375421910285</v>
+        <v>0.9402375421910241</v>
       </c>
       <c r="D24">
-        <v>0.9703093502360487</v>
+        <v>0.9703093502360447</v>
       </c>
       <c r="E24">
-        <v>0.9521203912412145</v>
+        <v>0.9521203912412108</v>
       </c>
       <c r="F24">
-        <v>0.9389566395935542</v>
+        <v>0.9389566395935504</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022965282404186</v>
+        <v>1.022965282404183</v>
       </c>
       <c r="J24">
-        <v>0.9702473861169135</v>
+        <v>0.9702473861169092</v>
       </c>
       <c r="K24">
-        <v>0.9848787317309663</v>
+        <v>0.9848787317309624</v>
       </c>
       <c r="L24">
-        <v>0.9670439476383211</v>
+        <v>0.9670439476383174</v>
       </c>
       <c r="M24">
-        <v>0.9541478259971757</v>
+        <v>0.9541478259971721</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614473785280916</v>
+        <v>0.9614473785280905</v>
       </c>
       <c r="D25">
-        <v>0.9870671693062056</v>
+        <v>0.9870671693062045</v>
       </c>
       <c r="E25">
-        <v>0.9708982297262838</v>
+        <v>0.970898229726283</v>
       </c>
       <c r="F25">
-        <v>0.9616944417703998</v>
+        <v>0.9616944417703984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030634690815809</v>
+        <v>1.030634690815808</v>
       </c>
       <c r="J25">
-        <v>0.9873456891700897</v>
+        <v>0.9873456891700887</v>
       </c>
       <c r="K25">
-        <v>0.9998696243067771</v>
+        <v>0.999869624306776</v>
       </c>
       <c r="L25">
-        <v>0.9839657627487848</v>
+        <v>0.9839657627487839</v>
       </c>
       <c r="M25">
-        <v>0.9749180093482039</v>
+        <v>0.9749180093482028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9768177005818026</v>
+        <v>0.9796618626782654</v>
       </c>
       <c r="D2">
-        <v>0.9992361001046469</v>
+        <v>1.00151624204992</v>
       </c>
       <c r="E2">
-        <v>0.9845201081204124</v>
+        <v>0.9869796490992444</v>
       </c>
       <c r="F2">
-        <v>0.9781930406665997</v>
+        <v>0.9806790612087967</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03612996383849</v>
+        <v>1.037286647422994</v>
       </c>
       <c r="J2">
-        <v>0.9997146115502434</v>
+        <v>1.002468379895925</v>
       </c>
       <c r="K2">
-        <v>1.010706087534968</v>
+        <v>1.012954493553381</v>
       </c>
       <c r="L2">
-        <v>0.9961993998147103</v>
+        <v>0.9986234087153922</v>
       </c>
       <c r="M2">
-        <v>0.9899647798061091</v>
+        <v>0.992414295499137</v>
+      </c>
+      <c r="N2">
+        <v>1.003891999980107</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.987252696095302</v>
+        <v>0.9900651138606998</v>
       </c>
       <c r="D3">
-        <v>1.007506379086753</v>
+        <v>1.00976415754342</v>
       </c>
       <c r="E3">
-        <v>0.9937727906590511</v>
+        <v>0.9962060974614529</v>
       </c>
       <c r="F3">
-        <v>0.9894074711616851</v>
+        <v>0.9918571729100316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039822290597241</v>
+        <v>1.040969119164249</v>
       </c>
       <c r="J3">
-        <v>1.008097002376122</v>
+        <v>1.010830327344634</v>
       </c>
       <c r="K3">
-        <v>1.018044106955958</v>
+        <v>1.020273610150046</v>
       </c>
       <c r="L3">
-        <v>1.004485974793926</v>
+        <v>1.006887753252297</v>
       </c>
       <c r="M3">
-        <v>1.000177703861409</v>
+        <v>1.002595314011961</v>
+      </c>
+      <c r="N3">
+        <v>1.012265822353323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937136379685925</v>
+        <v>0.996508183399781</v>
       </c>
       <c r="D4">
-        <v>1.012629548662081</v>
+        <v>1.014874801106101</v>
       </c>
       <c r="E4">
-        <v>0.9995030022689261</v>
+        <v>1.001921594959806</v>
       </c>
       <c r="F4">
-        <v>0.9963575497838612</v>
+        <v>0.9987866309587793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04209001212881</v>
+        <v>1.043231419556144</v>
       </c>
       <c r="J4">
-        <v>1.013279528062311</v>
+        <v>1.016001633935003</v>
       </c>
       <c r="K4">
-        <v>1.022577898883609</v>
+        <v>1.024796954963945</v>
       </c>
       <c r="L4">
-        <v>1.009607429318712</v>
+        <v>1.011996883218901</v>
       </c>
       <c r="M4">
-        <v>1.006500135679582</v>
+        <v>1.008899722369364</v>
+      </c>
+      <c r="N4">
+        <v>1.017444472792207</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9963657403999571</v>
+        <v>0.9991533287179396</v>
       </c>
       <c r="D5">
-        <v>1.014732933300572</v>
+        <v>1.016973326068714</v>
       </c>
       <c r="E5">
-        <v>1.001855356927453</v>
+        <v>1.004268235854996</v>
       </c>
       <c r="F5">
-        <v>0.9992120461465753</v>
+        <v>1.001633058838595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04301635844093</v>
+        <v>1.044155687054909</v>
       </c>
       <c r="J5">
-        <v>1.015404975429789</v>
+        <v>1.018122783308797</v>
       </c>
       <c r="K5">
-        <v>1.024436512987791</v>
+        <v>1.026651549637957</v>
       </c>
       <c r="L5">
-        <v>1.011707401412914</v>
+        <v>1.014092104029852</v>
       </c>
       <c r="M5">
-        <v>1.009095151183296</v>
+        <v>1.011487707652624</v>
+      </c>
+      <c r="N5">
+        <v>1.019568634441411</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968074328425151</v>
+        <v>0.9995938835498777</v>
       </c>
       <c r="D6">
-        <v>1.015083259039348</v>
+        <v>1.017322858151823</v>
       </c>
       <c r="E6">
-        <v>1.002247137137407</v>
+        <v>1.004659082606259</v>
       </c>
       <c r="F6">
-        <v>0.9996875421306091</v>
+        <v>1.002107233016514</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043170367914404</v>
+        <v>1.044309358497512</v>
       </c>
       <c r="J6">
-        <v>1.015758843144655</v>
+        <v>1.018475952316209</v>
       </c>
       <c r="K6">
-        <v>1.024745908414492</v>
+        <v>1.026960290633147</v>
       </c>
       <c r="L6">
-        <v>1.012057002784492</v>
+        <v>1.014440931235555</v>
       </c>
       <c r="M6">
-        <v>1.009527322834618</v>
+        <v>1.011918728899024</v>
+      </c>
+      <c r="N6">
+        <v>1.019922304989323</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937493203680097</v>
+        <v>0.9965437707489295</v>
       </c>
       <c r="D7">
-        <v>1.01265784700171</v>
+        <v>1.014903032984245</v>
       </c>
       <c r="E7">
-        <v>0.9995346510741769</v>
+        <v>1.001953165644513</v>
       </c>
       <c r="F7">
-        <v>0.9963959488189373</v>
+        <v>0.998824919928465</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042102493576701</v>
+        <v>1.043243872473781</v>
       </c>
       <c r="J7">
-        <v>1.013308132239087</v>
+        <v>1.01603017911104</v>
       </c>
       <c r="K7">
-        <v>1.022602915170281</v>
+        <v>1.024821916143478</v>
       </c>
       <c r="L7">
-        <v>1.009635692339413</v>
+        <v>1.012025081137937</v>
       </c>
       <c r="M7">
-        <v>1.006535050912383</v>
+        <v>1.008934541610709</v>
+      </c>
+      <c r="N7">
+        <v>1.017473058505668</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9804081898903413</v>
+        <v>0.9832410164036274</v>
       </c>
       <c r="D8">
-        <v>1.002081082130666</v>
+        <v>1.004353224046229</v>
       </c>
       <c r="E8">
-        <v>0.9877034323641141</v>
+        <v>0.9901535930180297</v>
       </c>
       <c r="F8">
-        <v>0.9820503539620131</v>
+        <v>0.9845234446410959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037404290550272</v>
+        <v>1.038557426644335</v>
       </c>
       <c r="J8">
-        <v>1.002600386158097</v>
+        <v>1.005346787871631</v>
       </c>
       <c r="K8">
-        <v>1.013232937437172</v>
+        <v>1.015474549274466</v>
       </c>
       <c r="L8">
-        <v>0.9990525856603834</v>
+        <v>1.001468612984044</v>
       </c>
       <c r="M8">
-        <v>0.9934790822162368</v>
+        <v>0.9959172186186054</v>
+      </c>
+      <c r="N8">
+        <v>1.006774495625297</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.954367836595465</v>
+        <v>0.9572935304852159</v>
       </c>
       <c r="D9">
-        <v>0.981468687686031</v>
+        <v>0.9838066817287306</v>
       </c>
       <c r="E9">
-        <v>0.9646276322692846</v>
+        <v>0.9671549141331104</v>
       </c>
       <c r="F9">
-        <v>0.9541017050629106</v>
+        <v>0.95667979878333</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02808454321743</v>
+        <v>1.029267385050934</v>
       </c>
       <c r="J9">
-        <v>0.9816416881618156</v>
+        <v>0.9844500476839545</v>
       </c>
       <c r="K9">
-        <v>0.9948697524458552</v>
+        <v>0.9971680640825163</v>
       </c>
       <c r="L9">
-        <v>0.9783219141851145</v>
+        <v>0.9808043492878712</v>
       </c>
       <c r="M9">
-        <v>0.9679860980054122</v>
+        <v>0.970517124867302</v>
+      </c>
+      <c r="N9">
+        <v>0.9858480796696644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9347831591423421</v>
+        <v>0.9377970407300871</v>
       </c>
       <c r="D10">
-        <v>0.9660077002122709</v>
+        <v>0.9684086257163036</v>
       </c>
       <c r="E10">
-        <v>0.9472959383141062</v>
+        <v>0.9498968040374585</v>
       </c>
       <c r="F10">
-        <v>0.9331133021983647</v>
+        <v>0.9357897976815186</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020980254747944</v>
+        <v>1.022192175545445</v>
       </c>
       <c r="J10">
-        <v>0.9658465465126924</v>
+        <v>0.9687161041842502</v>
       </c>
       <c r="K10">
-        <v>0.9810190713200712</v>
+        <v>0.9833727009576677</v>
       </c>
       <c r="L10">
-        <v>0.9626867703138217</v>
+        <v>0.9652337112375694</v>
       </c>
       <c r="M10">
-        <v>0.9488052106260367</v>
+        <v>0.9514239615067535</v>
+      </c>
+      <c r="N10">
+        <v>0.970091792165482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9256174069880424</v>
+        <v>0.9286789525083531</v>
       </c>
       <c r="D11">
-        <v>0.9587872872222674</v>
+        <v>0.9612223091675869</v>
       </c>
       <c r="E11">
-        <v>0.9391935743117193</v>
+        <v>0.9418342828688597</v>
       </c>
       <c r="F11">
-        <v>0.9232965707896457</v>
+        <v>0.9260259290356249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.01763512411434</v>
+        <v>1.018862964791849</v>
       </c>
       <c r="J11">
-        <v>0.9584490062361039</v>
+        <v>0.9613522624932876</v>
       </c>
       <c r="K11">
-        <v>0.9745306401724181</v>
+        <v>0.97691453885528</v>
       </c>
       <c r="L11">
-        <v>0.9553611484235444</v>
+        <v>0.9579433141118207</v>
       </c>
       <c r="M11">
-        <v>0.9398260449156296</v>
+        <v>0.9424920870479911</v>
+      </c>
+      <c r="N11">
+        <v>0.9627174929746738</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9220920769673437</v>
+        <v>0.9251731640451558</v>
       </c>
       <c r="D12">
-        <v>0.9560130898621964</v>
+        <v>0.9584621021743084</v>
       </c>
       <c r="E12">
-        <v>0.9360789684068316</v>
+        <v>0.9387360215290904</v>
       </c>
       <c r="F12">
-        <v>0.919521575547646</v>
+        <v>0.9222725581968589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016345729533304</v>
+        <v>1.017580127338863</v>
       </c>
       <c r="J12">
-        <v>0.9556032303422739</v>
+        <v>0.9585204018229155</v>
       </c>
       <c r="K12">
-        <v>0.9720344830107387</v>
+        <v>0.9744308491807872</v>
       </c>
       <c r="L12">
-        <v>0.9525425701664282</v>
+        <v>0.9551392331718862</v>
       </c>
       <c r="M12">
-        <v>0.9363720582374109</v>
+        <v>0.9390574705930059</v>
+      </c>
+      <c r="N12">
+        <v>0.9598816107373307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9228540738107526</v>
+        <v>0.9259308776497306</v>
       </c>
       <c r="D13">
-        <v>0.9566125877964908</v>
+        <v>0.9590585331308287</v>
       </c>
       <c r="E13">
-        <v>0.9367521030478253</v>
+        <v>0.9394055732652351</v>
       </c>
       <c r="F13">
-        <v>0.9203375086917964</v>
+        <v>0.9230837537372216</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016624551923083</v>
+        <v>1.017857511154852</v>
       </c>
       <c r="J13">
-        <v>0.9562183613933615</v>
+        <v>0.9591324783207835</v>
       </c>
       <c r="K13">
-        <v>0.9725740445151253</v>
+        <v>0.9749676753817091</v>
       </c>
       <c r="L13">
-        <v>0.9531518436359961</v>
+        <v>0.9557453265229405</v>
       </c>
       <c r="M13">
-        <v>0.937118654481586</v>
+        <v>0.9397998219785119</v>
+      </c>
+      <c r="N13">
+        <v>0.960494556454032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9253285851573472</v>
+        <v>0.928391705557549</v>
       </c>
       <c r="D14">
-        <v>0.9585599411845778</v>
+        <v>0.960996090416155</v>
       </c>
       <c r="E14">
-        <v>0.9389383648969449</v>
+        <v>0.9415803905036896</v>
       </c>
       <c r="F14">
-        <v>0.9229872813296193</v>
+        <v>0.9257183832744208</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017529541734402</v>
+        <v>1.018757910264705</v>
       </c>
       <c r="J14">
-        <v>0.9582158677125916</v>
+        <v>0.9611202434195337</v>
       </c>
       <c r="K14">
-        <v>0.9743261453314742</v>
+        <v>0.9767110476359391</v>
       </c>
       <c r="L14">
-        <v>0.9551302475918436</v>
+        <v>0.9577135805298878</v>
       </c>
       <c r="M14">
-        <v>0.9395430770050057</v>
+        <v>0.9422106805752645</v>
+      </c>
+      <c r="N14">
+        <v>0.9624851444072222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9268366004313323</v>
+        <v>0.9298915484587779</v>
       </c>
       <c r="D15">
-        <v>0.9597470966607932</v>
+        <v>0.9621773966109994</v>
       </c>
       <c r="E15">
-        <v>0.9402709528743258</v>
+        <v>0.9429061444096192</v>
       </c>
       <c r="F15">
-        <v>0.9246021911242944</v>
+        <v>0.9273242427493538</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018080704298183</v>
+        <v>1.019306334878217</v>
       </c>
       <c r="J15">
-        <v>0.9594331258012173</v>
+        <v>0.9623316963938441</v>
       </c>
       <c r="K15">
-        <v>0.9753938460465778</v>
+        <v>0.9777735426303932</v>
       </c>
       <c r="L15">
-        <v>0.9563358032763877</v>
+        <v>0.9589130813144144</v>
       </c>
       <c r="M15">
-        <v>0.9410205099761775</v>
+        <v>0.9436800101977375</v>
+      </c>
+      <c r="N15">
+        <v>0.963698317783712</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9353756013853041</v>
+        <v>0.9383865512721642</v>
       </c>
       <c r="D16">
-        <v>0.9664747639063161</v>
+        <v>0.9688735937200087</v>
       </c>
       <c r="E16">
-        <v>0.947819859097651</v>
+        <v>0.9504182754672631</v>
       </c>
       <c r="F16">
-        <v>0.9337479293049047</v>
+        <v>0.9364211671145244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021196078779244</v>
+        <v>1.02240702425263</v>
       </c>
       <c r="J16">
-        <v>0.9663246098072268</v>
+        <v>0.9691921071259236</v>
       </c>
       <c r="K16">
-        <v>0.9814383618136238</v>
+        <v>0.9837901369238968</v>
       </c>
       <c r="L16">
-        <v>0.9631601231155067</v>
+        <v>0.9657049044729858</v>
       </c>
       <c r="M16">
-        <v>0.9493855391041349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9520013788418155</v>
+      </c>
+      <c r="N16">
+        <v>0.9705684710859308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9405371651770542</v>
+        <v>0.9435233012116969</v>
       </c>
       <c r="D17">
-        <v>0.9705457514263375</v>
+        <v>0.9729268517473715</v>
       </c>
       <c r="E17">
-        <v>0.9523854691558854</v>
+        <v>0.9549631615084845</v>
       </c>
       <c r="F17">
-        <v>0.9392776680733352</v>
+        <v>0.9419232999946503</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023074192120679</v>
+        <v>1.02427690322352</v>
       </c>
       <c r="J17">
-        <v>0.9704891003890522</v>
+        <v>0.9733392231555238</v>
       </c>
       <c r="K17">
-        <v>0.9850907116810576</v>
+        <v>0.9874268282223704</v>
       </c>
       <c r="L17">
-        <v>0.967283244032031</v>
+        <v>0.9698097839120534</v>
       </c>
       <c r="M17">
-        <v>0.9544412937189078</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9570324810520732</v>
+      </c>
+      <c r="N17">
+        <v>0.9747214764959738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9434830865423983</v>
+        <v>0.9464556292931964</v>
       </c>
       <c r="D18">
-        <v>0.9728706112185264</v>
+        <v>0.9752420062077536</v>
       </c>
       <c r="E18">
-        <v>0.9549920533497287</v>
+        <v>0.957558399019303</v>
       </c>
       <c r="F18">
-        <v>0.942434285734435</v>
+        <v>0.9450647677701687</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024144226161358</v>
+        <v>1.025342443518524</v>
       </c>
       <c r="J18">
-        <v>0.9728654420399003</v>
+        <v>0.9757060988781455</v>
       </c>
       <c r="K18">
-        <v>0.9871746626435283</v>
+        <v>0.9895022323509725</v>
       </c>
       <c r="L18">
-        <v>0.9696357029661221</v>
+        <v>0.9721522802453717</v>
       </c>
       <c r="M18">
-        <v>0.957326610225199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9599042824351238</v>
+      </c>
+      <c r="N18">
+        <v>0.9770917134536063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9444770596652745</v>
+        <v>0.9474451065263509</v>
       </c>
       <c r="D19">
-        <v>0.9736552521748096</v>
+        <v>0.9760234384174769</v>
       </c>
       <c r="E19">
-        <v>0.9558716578486003</v>
+        <v>0.9584342517496798</v>
       </c>
       <c r="F19">
-        <v>0.943499449213886</v>
+        <v>0.9461249159382835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024504936421573</v>
+        <v>1.025701670418762</v>
       </c>
       <c r="J19">
-        <v>0.9736671423423391</v>
+        <v>0.9765046770790237</v>
       </c>
       <c r="K19">
-        <v>0.9878776906151748</v>
+        <v>0.990202438745967</v>
       </c>
       <c r="L19">
-        <v>0.9704292995959641</v>
+        <v>0.972942586911819</v>
       </c>
       <c r="M19">
-        <v>0.9583000998852522</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.960873300320888</v>
+      </c>
+      <c r="N19">
+        <v>0.9778914257271277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9399901880089936</v>
+        <v>0.9429788927758632</v>
       </c>
       <c r="D20">
-        <v>0.9701141966542657</v>
+        <v>0.9724971315926385</v>
       </c>
       <c r="E20">
-        <v>0.9519015602904912</v>
+        <v>0.9544813973514638</v>
       </c>
       <c r="F20">
-        <v>0.9386916173059556</v>
+        <v>0.9413401098643051</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022875361073734</v>
+        <v>1.024078922787631</v>
       </c>
       <c r="J20">
-        <v>0.9700478356294546</v>
+        <v>0.9728997514655618</v>
       </c>
       <c r="K20">
-        <v>0.9847037279281631</v>
+        <v>0.9870414621416448</v>
       </c>
       <c r="L20">
-        <v>0.9668463916918406</v>
+        <v>0.9693748167163281</v>
       </c>
       <c r="M20">
-        <v>0.9539055520855506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9564992925291209</v>
+      </c>
+      <c r="N20">
+        <v>0.9742813807058044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9246034030835344</v>
+        <v>0.9276704980929561</v>
       </c>
       <c r="D21">
-        <v>0.9579891632417638</v>
+        <v>0.9604281576401114</v>
       </c>
       <c r="E21">
-        <v>0.938297606865555</v>
+        <v>0.940942956527047</v>
       </c>
       <c r="F21">
-        <v>0.9222107192647486</v>
+        <v>0.9249462211104084</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017264398768097</v>
+        <v>1.018494099943742</v>
       </c>
       <c r="J21">
-        <v>0.9576304893047908</v>
+        <v>0.9605376918125371</v>
       </c>
       <c r="K21">
-        <v>0.9738126859649561</v>
+        <v>0.9762001220778905</v>
       </c>
       <c r="L21">
-        <v>0.9545504801589619</v>
+        <v>0.9571367598302635</v>
       </c>
       <c r="M21">
-        <v>0.9388325861228928</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9415041300859226</v>
+      </c>
+      <c r="N21">
+        <v>0.9619017655101241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9142178379181701</v>
+        <v>0.9173451855864426</v>
       </c>
       <c r="D22">
-        <v>0.9498228107583437</v>
+        <v>0.9523049625076112</v>
       </c>
       <c r="E22">
-        <v>0.9291258399705387</v>
+        <v>0.9318216020222888</v>
       </c>
       <c r="F22">
-        <v>0.9110907478280413</v>
+        <v>0.9138928287738192</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01346086514903</v>
+        <v>1.01471084322331</v>
       </c>
       <c r="J22">
-        <v>0.9492462141981928</v>
+        <v>0.9521965251389032</v>
       </c>
       <c r="K22">
-        <v>0.96645842432387</v>
+        <v>0.9688844177691449</v>
       </c>
       <c r="L22">
-        <v>0.9462454208192655</v>
+        <v>0.9488765118883629</v>
       </c>
       <c r="M22">
-        <v>0.9286562989403347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9313875308663772</v>
+      </c>
+      <c r="N22">
+        <v>0.9535487534230684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9197981012863141</v>
+        <v>0.9228922847793931</v>
       </c>
       <c r="D23">
-        <v>0.9542087954674907</v>
+        <v>0.9566671869209056</v>
       </c>
       <c r="E23">
-        <v>0.9340527976131249</v>
+        <v>0.9367208071015924</v>
       </c>
       <c r="F23">
-        <v>0.9170653129808254</v>
+        <v>0.9198307741664047</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015505954176638</v>
+        <v>1.016744754984834</v>
       </c>
       <c r="J23">
-        <v>0.9537513365761501</v>
+        <v>0.9566778627672277</v>
       </c>
       <c r="K23">
-        <v>0.9704100918531813</v>
+        <v>0.9728148301277423</v>
       </c>
       <c r="L23">
-        <v>0.9507082411203007</v>
+        <v>0.9533146359642024</v>
       </c>
       <c r="M23">
-        <v>0.9341243778393524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9368227665366038</v>
+      </c>
+      <c r="N23">
+        <v>0.9580364550648416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9402375421910241</v>
+        <v>0.9432250835675967</v>
       </c>
       <c r="D24">
-        <v>0.9703093502360447</v>
+        <v>0.9726914542455362</v>
       </c>
       <c r="E24">
-        <v>0.9521203912412108</v>
+        <v>0.9546992569346018</v>
       </c>
       <c r="F24">
-        <v>0.9389566395935504</v>
+        <v>0.9416038366425398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022965282404183</v>
+        <v>1.024168458818179</v>
       </c>
       <c r="J24">
-        <v>0.9702473861169092</v>
+        <v>0.9730984896990973</v>
       </c>
       <c r="K24">
-        <v>0.9848787317309624</v>
+        <v>0.9872157331949885</v>
       </c>
       <c r="L24">
-        <v>0.9670439476383174</v>
+        <v>0.9695715187765366</v>
       </c>
       <c r="M24">
-        <v>0.9541478259971721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9567404101582366</v>
+      </c>
+      <c r="N24">
+        <v>0.9744804011704268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9614473785280905</v>
+        <v>0.9643452779926359</v>
       </c>
       <c r="D25">
-        <v>0.9870671693062045</v>
+        <v>0.9893853926528354</v>
       </c>
       <c r="E25">
-        <v>0.970898229726283</v>
+        <v>0.9734023757391647</v>
       </c>
       <c r="F25">
-        <v>0.9616944417703984</v>
+        <v>0.9642412996724402</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030634690815808</v>
+        <v>1.03180851200694</v>
       </c>
       <c r="J25">
-        <v>0.9873456891700887</v>
+        <v>0.9901351700020999</v>
       </c>
       <c r="K25">
-        <v>0.999869624306776</v>
+        <v>1.002150752361209</v>
       </c>
       <c r="L25">
-        <v>0.9839657627487839</v>
+        <v>0.9864281128884927</v>
       </c>
       <c r="M25">
-        <v>0.9749180093482028</v>
+        <v>0.977421304624764</v>
+      </c>
+      <c r="N25">
+        <v>0.9915412755135944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9796618626782654</v>
+        <v>0.9911109169967008</v>
       </c>
       <c r="D2">
-        <v>1.00151624204992</v>
+        <v>1.01277808988464</v>
       </c>
       <c r="E2">
-        <v>0.9869796490992444</v>
+        <v>0.9979165581250452</v>
       </c>
       <c r="F2">
-        <v>0.9806790612087967</v>
+        <v>1.013192681112863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037286647422994</v>
+        <v>1.039215868484291</v>
       </c>
       <c r="J2">
-        <v>1.002468379895925</v>
+        <v>1.01356078904002</v>
       </c>
       <c r="K2">
-        <v>1.012954493553381</v>
+        <v>1.024062230349513</v>
       </c>
       <c r="L2">
-        <v>0.9986234087153922</v>
+        <v>1.009404995118119</v>
       </c>
       <c r="M2">
-        <v>0.992414295499137</v>
+        <v>1.024471230375565</v>
       </c>
       <c r="N2">
-        <v>1.003891999980107</v>
+        <v>1.015000161617505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900651138606998</v>
+        <v>0.9999219030171824</v>
       </c>
       <c r="D3">
-        <v>1.00976415754342</v>
+        <v>1.019722017267928</v>
       </c>
       <c r="E3">
-        <v>0.9962060974614529</v>
+        <v>1.005328557003631</v>
       </c>
       <c r="F3">
-        <v>0.9918571729100316</v>
+        <v>1.021156610658486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040969119164249</v>
+        <v>1.04173235666472</v>
       </c>
       <c r="J3">
-        <v>1.010830327344634</v>
+        <v>1.020414697261565</v>
       </c>
       <c r="K3">
-        <v>1.020273610150046</v>
+        <v>1.030108619982134</v>
       </c>
       <c r="L3">
-        <v>1.006887753252297</v>
+        <v>1.015893708953371</v>
       </c>
       <c r="M3">
-        <v>1.002595314011961</v>
+        <v>1.0315257601763</v>
       </c>
       <c r="N3">
-        <v>1.012265822353323</v>
+        <v>1.021863803174878</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.996508183399781</v>
+        <v>1.005427335144445</v>
       </c>
       <c r="D4">
-        <v>1.014874801106101</v>
+        <v>1.024063531655634</v>
       </c>
       <c r="E4">
-        <v>1.001921594959806</v>
+        <v>1.009966191938275</v>
       </c>
       <c r="F4">
-        <v>0.9987866309587793</v>
+        <v>1.026140734826847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043231419556144</v>
+        <v>1.043290755455058</v>
       </c>
       <c r="J4">
-        <v>1.016001633935003</v>
+        <v>1.024693220715395</v>
       </c>
       <c r="K4">
-        <v>1.024796954963945</v>
+        <v>1.033879953198616</v>
       </c>
       <c r="L4">
-        <v>1.011996883218901</v>
+        <v>1.019945803695145</v>
       </c>
       <c r="M4">
-        <v>1.008899722369364</v>
+        <v>1.035933578055043</v>
       </c>
       <c r="N4">
-        <v>1.017444472792207</v>
+        <v>1.026148402622767</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991533287179396</v>
+        <v>1.007697993066964</v>
       </c>
       <c r="D5">
-        <v>1.016973326068714</v>
+        <v>1.025854630186424</v>
       </c>
       <c r="E5">
-        <v>1.004268235854996</v>
+        <v>1.011880327872468</v>
       </c>
       <c r="F5">
-        <v>1.001633058838595</v>
+        <v>1.028198142850888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155687054909</v>
+        <v>1.04393005500294</v>
       </c>
       <c r="J5">
-        <v>1.018122783308797</v>
+        <v>1.026456787251956</v>
       </c>
       <c r="K5">
-        <v>1.026651549637957</v>
+        <v>1.035433677640163</v>
       </c>
       <c r="L5">
-        <v>1.014092104029852</v>
+        <v>1.021616393002994</v>
       </c>
       <c r="M5">
-        <v>1.011487707652624</v>
+        <v>1.037751371701331</v>
       </c>
       <c r="N5">
-        <v>1.019568634441411</v>
+        <v>1.027914473626093</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995938835498777</v>
+        <v>1.008076759980537</v>
       </c>
       <c r="D6">
-        <v>1.017322858151823</v>
+        <v>1.02615342635214</v>
       </c>
       <c r="E6">
-        <v>1.004659082606259</v>
+        <v>1.012199701913814</v>
       </c>
       <c r="F6">
-        <v>1.002107233016514</v>
+        <v>1.028541436929155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044309358497512</v>
+        <v>1.04403649099072</v>
       </c>
       <c r="J6">
-        <v>1.018475952316209</v>
+        <v>1.026750901334731</v>
       </c>
       <c r="K6">
-        <v>1.026960290633147</v>
+        <v>1.035692748703796</v>
       </c>
       <c r="L6">
-        <v>1.014440931235555</v>
+        <v>1.021895021491807</v>
       </c>
       <c r="M6">
-        <v>1.011918728899024</v>
+        <v>1.038054583168999</v>
       </c>
       <c r="N6">
-        <v>1.019922304989323</v>
+        <v>1.0282090053846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9965437707489295</v>
+        <v>1.005457844168912</v>
       </c>
       <c r="D7">
-        <v>1.014903032984245</v>
+        <v>1.024087595495985</v>
       </c>
       <c r="E7">
-        <v>1.001953165644513</v>
+        <v>1.00999190530927</v>
       </c>
       <c r="F7">
-        <v>0.998824919928465</v>
+        <v>1.026168371808854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043243872473781</v>
+        <v>1.043299358977281</v>
       </c>
       <c r="J7">
-        <v>1.01603017911104</v>
+        <v>1.024716920696003</v>
       </c>
       <c r="K7">
-        <v>1.024821916143478</v>
+        <v>1.033900836334923</v>
       </c>
       <c r="L7">
-        <v>1.012025081137937</v>
+        <v>1.019968252800398</v>
       </c>
       <c r="M7">
-        <v>1.008934541610709</v>
+        <v>1.03595800312797</v>
       </c>
       <c r="N7">
-        <v>1.017473058505668</v>
+        <v>1.026172136260065</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9832410164036274</v>
+        <v>0.9941311328266665</v>
       </c>
       <c r="D8">
-        <v>1.004353224046229</v>
+        <v>1.015157645788547</v>
       </c>
       <c r="E8">
-        <v>0.9901535930180297</v>
+        <v>1.000455804248874</v>
       </c>
       <c r="F8">
-        <v>0.9845234446410959</v>
+        <v>1.015920758576931</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038557426644335</v>
+        <v>1.040081374283154</v>
       </c>
       <c r="J8">
-        <v>1.005346787871631</v>
+        <v>1.015910959073565</v>
       </c>
       <c r="K8">
-        <v>1.015474549274466</v>
+        <v>1.026136138110405</v>
       </c>
       <c r="L8">
-        <v>1.001468612984044</v>
+        <v>1.011629604914143</v>
       </c>
       <c r="M8">
-        <v>0.9959172186186054</v>
+        <v>1.026889306515641</v>
       </c>
       <c r="N8">
-        <v>1.006774495625297</v>
+        <v>1.017353669162065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9572935304852159</v>
+        <v>0.9725153254043122</v>
       </c>
       <c r="D9">
-        <v>0.9838066817287306</v>
+        <v>0.9981464256601021</v>
       </c>
       <c r="E9">
-        <v>0.9671549141331104</v>
+        <v>0.9823162723957428</v>
       </c>
       <c r="F9">
-        <v>0.95667979878333</v>
+        <v>0.9964379687754915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029267385050934</v>
+        <v>1.033829808766519</v>
       </c>
       <c r="J9">
-        <v>0.9844500476839545</v>
+        <v>0.9990774191674444</v>
       </c>
       <c r="K9">
-        <v>0.9971680640825163</v>
+        <v>1.01126964757093</v>
       </c>
       <c r="L9">
-        <v>0.9808043492878712</v>
+        <v>0.9957029230546677</v>
       </c>
       <c r="M9">
-        <v>0.970517124867302</v>
+        <v>1.009589103030005</v>
       </c>
       <c r="N9">
-        <v>0.9858480796696644</v>
+        <v>1.000496223698444</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9377970407300871</v>
+        <v>0.9567357139952131</v>
       </c>
       <c r="D10">
-        <v>0.9684086257163036</v>
+        <v>0.9857631981455349</v>
       </c>
       <c r="E10">
-        <v>0.9498968040374585</v>
+        <v>0.9691264573863128</v>
       </c>
       <c r="F10">
-        <v>0.9357897976815186</v>
+        <v>0.9822796975777823</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022192175545445</v>
+        <v>1.029197701031801</v>
       </c>
       <c r="J10">
-        <v>0.9687161041842502</v>
+        <v>0.9867776189738738</v>
       </c>
       <c r="K10">
-        <v>0.9833727009576677</v>
+        <v>1.000394349807674</v>
       </c>
       <c r="L10">
-        <v>0.9652337112375694</v>
+        <v>0.9840764517684184</v>
       </c>
       <c r="M10">
-        <v>0.9514239615067535</v>
+        <v>0.99697644202973</v>
       </c>
       <c r="N10">
-        <v>0.970091792165482</v>
+        <v>0.9881789563777916</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9286789525083531</v>
+        <v>0.9495078598904134</v>
       </c>
       <c r="D11">
-        <v>0.9612223091675869</v>
+        <v>0.9801031882547555</v>
       </c>
       <c r="E11">
-        <v>0.9418342828688597</v>
+        <v>0.9631004150900746</v>
       </c>
       <c r="F11">
-        <v>0.9260259290356249</v>
+        <v>0.9758135307100322</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018862964791849</v>
+        <v>1.027061589298172</v>
       </c>
       <c r="J11">
-        <v>0.9613522624932876</v>
+        <v>0.9811432261843166</v>
       </c>
       <c r="K11">
-        <v>0.97691453885528</v>
+        <v>0.9954103435982535</v>
       </c>
       <c r="L11">
-        <v>0.9579433141118207</v>
+        <v>0.9787534472878116</v>
       </c>
       <c r="M11">
-        <v>0.9424920870479911</v>
+        <v>0.9912064516390053</v>
       </c>
       <c r="N11">
-        <v>0.9627174929746738</v>
+        <v>0.9825365621041994</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9251731640451558</v>
+        <v>0.9467564649724346</v>
       </c>
       <c r="D12">
-        <v>0.9584621021743084</v>
+        <v>0.9779508229714406</v>
       </c>
       <c r="E12">
-        <v>0.9387360215290904</v>
+        <v>0.9608091650862716</v>
       </c>
       <c r="F12">
-        <v>0.9222725581968589</v>
+        <v>0.97335532376193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017580127338863</v>
+        <v>1.026246475926025</v>
       </c>
       <c r="J12">
-        <v>0.9585204018229155</v>
+        <v>0.9789985610518017</v>
       </c>
       <c r="K12">
-        <v>0.9744308491807872</v>
+        <v>0.9935130032452316</v>
       </c>
       <c r="L12">
-        <v>0.9551392331718862</v>
+        <v>0.9767277911604693</v>
       </c>
       <c r="M12">
-        <v>0.9390574705930059</v>
+        <v>0.9890114381777337</v>
       </c>
       <c r="N12">
-        <v>0.9598816107373307</v>
+        <v>0.9803888513011999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9259308776497306</v>
+        <v>0.9473497953960789</v>
       </c>
       <c r="D13">
-        <v>0.9590585331308287</v>
+        <v>0.9784148681663002</v>
       </c>
       <c r="E13">
-        <v>0.9394055732652351</v>
+        <v>0.9613031411395123</v>
       </c>
       <c r="F13">
-        <v>0.9230837537372216</v>
+        <v>0.9738852762119895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017857511154852</v>
+        <v>1.026422338236418</v>
       </c>
       <c r="J13">
-        <v>0.9591324783207835</v>
+        <v>0.9794610410223806</v>
       </c>
       <c r="K13">
-        <v>0.9749676753817091</v>
+        <v>0.9939221587500882</v>
       </c>
       <c r="L13">
-        <v>0.9557453265229405</v>
+        <v>0.9771645853030921</v>
       </c>
       <c r="M13">
-        <v>0.9397998219785119</v>
+        <v>0.9894847164372796</v>
       </c>
       <c r="N13">
-        <v>0.960494556454032</v>
+        <v>0.9808519880463841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.928391705557549</v>
+        <v>0.9492818349909911</v>
       </c>
       <c r="D14">
-        <v>0.960996090416155</v>
+        <v>0.979926326124159</v>
       </c>
       <c r="E14">
-        <v>0.9415803905036896</v>
+        <v>0.9629121349539751</v>
       </c>
       <c r="F14">
-        <v>0.9257183832744208</v>
+        <v>0.9756115230023534</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018757910264705</v>
+        <v>1.026994667050166</v>
       </c>
       <c r="J14">
-        <v>0.9611202434195337</v>
+        <v>0.9809670391254951</v>
       </c>
       <c r="K14">
-        <v>0.9767110476359391</v>
+        <v>0.9952544788481558</v>
       </c>
       <c r="L14">
-        <v>0.9577135805298878</v>
+        <v>0.9785870269506137</v>
       </c>
       <c r="M14">
-        <v>0.9422106805752645</v>
+        <v>0.9910261021243193</v>
       </c>
       <c r="N14">
-        <v>0.9624851444072222</v>
+        <v>0.9823601248395452</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9298915484587779</v>
+        <v>0.9504631574329626</v>
       </c>
       <c r="D15">
-        <v>0.9621773966109994</v>
+        <v>0.9808507904702271</v>
       </c>
       <c r="E15">
-        <v>0.9429061444096192</v>
+        <v>0.9638962935673278</v>
       </c>
       <c r="F15">
-        <v>0.9273242427493538</v>
+        <v>0.9766674530065131</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019306334878217</v>
+        <v>1.027344358515834</v>
       </c>
       <c r="J15">
-        <v>0.9623316963938441</v>
+        <v>0.9818878910274867</v>
       </c>
       <c r="K15">
-        <v>0.9777735426303932</v>
+        <v>0.9960691059570124</v>
       </c>
       <c r="L15">
-        <v>0.9589130813144144</v>
+        <v>0.9794568523424177</v>
       </c>
       <c r="M15">
-        <v>0.9436800101977375</v>
+        <v>0.9919687613146673</v>
       </c>
       <c r="N15">
-        <v>0.963698317783712</v>
+        <v>0.9832822844568608</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9383865512721642</v>
+        <v>0.9572064839649285</v>
       </c>
       <c r="D16">
-        <v>0.9688735937200087</v>
+        <v>0.9861321305524727</v>
       </c>
       <c r="E16">
-        <v>0.9504182754672631</v>
+        <v>0.969519295900693</v>
       </c>
       <c r="F16">
-        <v>0.9364211671145244</v>
+        <v>0.98270127905718</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02240702425263</v>
+        <v>1.02933655122634</v>
       </c>
       <c r="J16">
-        <v>0.9691921071259236</v>
+        <v>0.9871446107755</v>
       </c>
       <c r="K16">
-        <v>0.9837901369238968</v>
+        <v>1.000718941718133</v>
       </c>
       <c r="L16">
-        <v>0.9657049044729858</v>
+        <v>0.9844232253818332</v>
       </c>
       <c r="M16">
-        <v>0.9520013788418155</v>
+        <v>0.9973524332503091</v>
       </c>
       <c r="N16">
-        <v>0.9705684710859308</v>
+        <v>0.9885464693498703</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9435233012116969</v>
+        <v>0.9613258364046383</v>
       </c>
       <c r="D17">
-        <v>0.9729268517473715</v>
+        <v>0.989361778548756</v>
       </c>
       <c r="E17">
-        <v>0.9549631615084845</v>
+        <v>0.9729585054321714</v>
       </c>
       <c r="F17">
-        <v>0.9419232999946503</v>
+        <v>0.9863923924478315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02427690322352</v>
+        <v>1.030549933222237</v>
       </c>
       <c r="J17">
-        <v>0.9733392231555238</v>
+        <v>0.9903558495698742</v>
       </c>
       <c r="K17">
-        <v>0.9874268282223704</v>
+        <v>1.003558941353255</v>
       </c>
       <c r="L17">
-        <v>0.9698097839120534</v>
+        <v>0.9874578858425381</v>
       </c>
       <c r="M17">
-        <v>0.9570324810520732</v>
+        <v>1.000643294539016</v>
       </c>
       <c r="N17">
-        <v>0.9747214764959738</v>
+        <v>0.9917622684716672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9464556292931964</v>
+        <v>0.9636910083319029</v>
       </c>
       <c r="D18">
-        <v>0.9752420062077536</v>
+        <v>0.9912172207120752</v>
       </c>
       <c r="E18">
-        <v>0.957558399019303</v>
+        <v>0.974934593557209</v>
       </c>
       <c r="F18">
-        <v>0.9450647677701687</v>
+        <v>0.9885134338305039</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025342443518524</v>
+        <v>1.031245256089459</v>
       </c>
       <c r="J18">
-        <v>0.9757060988781455</v>
+        <v>0.992199558440255</v>
       </c>
       <c r="K18">
-        <v>0.9895022323509725</v>
+        <v>1.005189298291845</v>
       </c>
       <c r="L18">
-        <v>0.9721522802453717</v>
+        <v>0.9892004852587174</v>
       </c>
       <c r="M18">
-        <v>0.9599042824351238</v>
+        <v>1.002533430469536</v>
       </c>
       <c r="N18">
-        <v>0.9770917134536063</v>
+        <v>0.99360859562012</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9474451065263509</v>
+        <v>0.9644912983120197</v>
       </c>
       <c r="D19">
-        <v>0.9760234384174769</v>
+        <v>0.9918452132189196</v>
       </c>
       <c r="E19">
-        <v>0.9584342517496798</v>
+        <v>0.975603465025362</v>
       </c>
       <c r="F19">
-        <v>0.9461249159382835</v>
+        <v>0.9892314049522917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025701670418762</v>
+        <v>1.031480293776158</v>
       </c>
       <c r="J19">
-        <v>0.9765046770790237</v>
+        <v>0.9928233877586801</v>
       </c>
       <c r="K19">
-        <v>0.990202438745967</v>
+        <v>1.005740901173278</v>
       </c>
       <c r="L19">
-        <v>0.972942586911819</v>
+        <v>0.9897901486242707</v>
       </c>
       <c r="M19">
-        <v>0.960873300320888</v>
+        <v>1.003173086665116</v>
       </c>
       <c r="N19">
-        <v>0.9778914257271277</v>
+        <v>0.9942333108477318</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9429788927758632</v>
+        <v>0.9608878042186213</v>
       </c>
       <c r="D20">
-        <v>0.9724971315926385</v>
+        <v>0.9890182358822946</v>
       </c>
       <c r="E20">
-        <v>0.9544813973514638</v>
+        <v>0.9725926457113113</v>
       </c>
       <c r="F20">
-        <v>0.9413401098643051</v>
+        <v>0.985999712797245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024078922787631</v>
+        <v>1.030421047633549</v>
       </c>
       <c r="J20">
-        <v>0.9728997514655618</v>
+        <v>0.9900143865634976</v>
       </c>
       <c r="K20">
-        <v>0.9870414621416448</v>
+        <v>1.003256974634515</v>
       </c>
       <c r="L20">
-        <v>0.9693748167163281</v>
+        <v>0.9871351705337066</v>
       </c>
       <c r="M20">
-        <v>0.9564992925291209</v>
+        <v>1.000293290153759</v>
       </c>
       <c r="N20">
-        <v>0.9742813807058044</v>
+        <v>0.9914203205486553</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9276704980929561</v>
+        <v>0.9487148021764434</v>
       </c>
       <c r="D21">
-        <v>0.9604281576401114</v>
+        <v>0.9794826656635</v>
       </c>
       <c r="E21">
-        <v>0.940942956527047</v>
+        <v>0.9624398369464164</v>
       </c>
       <c r="F21">
-        <v>0.9249462211104084</v>
+        <v>0.9751047959746937</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018494099943742</v>
+        <v>1.026826747055762</v>
       </c>
       <c r="J21">
-        <v>0.9605376918125371</v>
+        <v>0.9805250387130963</v>
       </c>
       <c r="K21">
-        <v>0.9762001220778905</v>
+        <v>0.9948634575160986</v>
       </c>
       <c r="L21">
-        <v>0.9571367598302635</v>
+        <v>0.9781695362085076</v>
       </c>
       <c r="M21">
-        <v>0.9415041300859226</v>
+        <v>0.9905736800645814</v>
       </c>
       <c r="N21">
-        <v>0.9619017655101241</v>
+        <v>0.9819174967358626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9173451855864426</v>
+        <v>0.9406709400748027</v>
       </c>
       <c r="D22">
-        <v>0.9523049625076112</v>
+        <v>0.9731947891464068</v>
       </c>
       <c r="E22">
-        <v>0.9318216020222888</v>
+        <v>0.955746702565181</v>
       </c>
       <c r="F22">
-        <v>0.9138928287738192</v>
+        <v>0.9679247429680815</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01471084322331</v>
+        <v>1.024440205297213</v>
       </c>
       <c r="J22">
-        <v>0.9521965251389032</v>
+        <v>0.9742555656162816</v>
       </c>
       <c r="K22">
-        <v>0.9688844177691449</v>
+        <v>0.9893166448832629</v>
       </c>
       <c r="L22">
-        <v>0.9488765118883629</v>
+        <v>0.972248931755608</v>
       </c>
       <c r="M22">
-        <v>0.9313875308663772</v>
+        <v>0.9841595694554345</v>
       </c>
       <c r="N22">
-        <v>0.9535487534230684</v>
+        <v>0.9756391202681319</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9228922847793931</v>
+        <v>0.9449749144717897</v>
       </c>
       <c r="D23">
-        <v>0.9566671869209056</v>
+        <v>0.9765578241506145</v>
       </c>
       <c r="E23">
-        <v>0.9367208071015924</v>
+        <v>0.9593263557911653</v>
       </c>
       <c r="F23">
-        <v>0.9198307741664047</v>
+        <v>0.9717645815555719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016744754984834</v>
+        <v>1.025718154364088</v>
       </c>
       <c r="J23">
-        <v>0.9566778627672277</v>
+        <v>0.9776099476725808</v>
       </c>
       <c r="K23">
-        <v>0.9728148301277423</v>
+        <v>0.9922844712746999</v>
       </c>
       <c r="L23">
-        <v>0.9533146359642024</v>
+        <v>0.9754163747008245</v>
       </c>
       <c r="M23">
-        <v>0.9368227665366038</v>
+        <v>0.9875905971677909</v>
       </c>
       <c r="N23">
-        <v>0.9580364550648416</v>
+        <v>0.9789982659317042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9432250835675967</v>
+        <v>0.9610858476972797</v>
       </c>
       <c r="D24">
-        <v>0.9726914542455362</v>
+        <v>0.9891735552735071</v>
       </c>
       <c r="E24">
-        <v>0.9546992569346018</v>
+        <v>0.9727580540957713</v>
       </c>
       <c r="F24">
-        <v>0.9416038366425398</v>
+        <v>0.9861772460400829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024168458818179</v>
+        <v>1.030479323719024</v>
       </c>
       <c r="J24">
-        <v>0.9730984896990973</v>
+        <v>0.9901687693049507</v>
       </c>
       <c r="K24">
-        <v>0.9872157331949885</v>
+        <v>1.003393500910522</v>
       </c>
       <c r="L24">
-        <v>0.9695715187765366</v>
+        <v>0.987281076197102</v>
       </c>
       <c r="M24">
-        <v>0.9567404101582366</v>
+        <v>1.000451532426934</v>
       </c>
       <c r="N24">
-        <v>0.9744804011704268</v>
+        <v>0.9915749225313093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9643452779926359</v>
+        <v>0.9783238875837283</v>
       </c>
       <c r="D25">
-        <v>0.9893853926528354</v>
+        <v>1.002712832328203</v>
       </c>
       <c r="E25">
-        <v>0.9734023757391647</v>
+        <v>0.9871828126397316</v>
       </c>
       <c r="F25">
-        <v>0.9642412996724402</v>
+        <v>1.001663589580994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03180851200694</v>
+        <v>1.035521806117621</v>
       </c>
       <c r="J25">
-        <v>0.9901351700020999</v>
+        <v>1.003603426639078</v>
       </c>
       <c r="K25">
-        <v>1.002150752361209</v>
+        <v>1.015269180535761</v>
       </c>
       <c r="L25">
-        <v>0.9864281128884927</v>
+        <v>0.9999834118658468</v>
       </c>
       <c r="M25">
-        <v>0.977421304624764</v>
+        <v>1.014236135240111</v>
       </c>
       <c r="N25">
-        <v>0.9915412755135944</v>
+        <v>1.005028658619828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9911109169967008</v>
+        <v>0.9832195549724349</v>
       </c>
       <c r="D2">
-        <v>1.01277808988464</v>
+        <v>1.004357563005517</v>
       </c>
       <c r="E2">
-        <v>0.9979165581250452</v>
-      </c>
-      <c r="F2">
-        <v>1.013192681112863</v>
+        <v>0.9919492766283978</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039215868484291</v>
+        <v>1.036558116540057</v>
       </c>
       <c r="J2">
-        <v>1.01356078904002</v>
+        <v>1.005914018206759</v>
       </c>
       <c r="K2">
-        <v>1.024062230349513</v>
+        <v>1.015756522049444</v>
       </c>
       <c r="L2">
-        <v>1.009404995118119</v>
-      </c>
-      <c r="M2">
-        <v>1.024471230375565</v>
+        <v>1.00352192208366</v>
       </c>
       <c r="N2">
-        <v>1.015000161617505</v>
+        <v>1.005864233182522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9999219030171824</v>
+        <v>0.9881302078850406</v>
       </c>
       <c r="D3">
-        <v>1.019722017267928</v>
+        <v>1.007717552453954</v>
       </c>
       <c r="E3">
-        <v>1.005328557003631</v>
-      </c>
-      <c r="F3">
-        <v>1.021156610658486</v>
+        <v>0.9958782495439862</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04173235666472</v>
+        <v>1.037500947544159</v>
       </c>
       <c r="J3">
-        <v>1.020414697261565</v>
+        <v>1.00894977012191</v>
       </c>
       <c r="K3">
-        <v>1.030108619982134</v>
+        <v>1.018252628998197</v>
       </c>
       <c r="L3">
-        <v>1.015893708953371</v>
-      </c>
-      <c r="M3">
-        <v>1.0315257601763</v>
+        <v>1.006564142021389</v>
       </c>
       <c r="N3">
-        <v>1.021863803174878</v>
+        <v>1.006892647656019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005427335144445</v>
+        <v>0.9912374487809664</v>
       </c>
       <c r="D4">
-        <v>1.024063531655634</v>
+        <v>1.009845774474231</v>
       </c>
       <c r="E4">
-        <v>1.009966191938275</v>
-      </c>
-      <c r="F4">
-        <v>1.026140734826847</v>
+        <v>0.9983708825541476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043290755455058</v>
+        <v>1.038086087740777</v>
       </c>
       <c r="J4">
-        <v>1.024693220715395</v>
+        <v>1.010867988889404</v>
       </c>
       <c r="K4">
-        <v>1.033879953198616</v>
+        <v>1.019826804472319</v>
       </c>
       <c r="L4">
-        <v>1.019945803695145</v>
-      </c>
-      <c r="M4">
-        <v>1.035933578055043</v>
+        <v>1.008489009436697</v>
       </c>
       <c r="N4">
-        <v>1.026148402622767</v>
+        <v>1.007542118503001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007697993066964</v>
+        <v>0.9925275513602715</v>
       </c>
       <c r="D5">
-        <v>1.025854630186424</v>
+        <v>1.01072983991417</v>
       </c>
       <c r="E5">
-        <v>1.011880327872468</v>
-      </c>
-      <c r="F5">
-        <v>1.028198142850888</v>
+        <v>0.9994073224844334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04393005500294</v>
+        <v>1.038326237479626</v>
       </c>
       <c r="J5">
-        <v>1.026456787251956</v>
+        <v>1.011663732817021</v>
       </c>
       <c r="K5">
-        <v>1.035433677640163</v>
+        <v>1.020479070833199</v>
       </c>
       <c r="L5">
-        <v>1.021616393002994</v>
-      </c>
-      <c r="M5">
-        <v>1.037751371701331</v>
+        <v>1.009288125943351</v>
       </c>
       <c r="N5">
-        <v>1.027914473626093</v>
+        <v>1.007811450856683</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008076759980537</v>
+        <v>0.992743234422704</v>
       </c>
       <c r="D6">
-        <v>1.02615342635214</v>
+        <v>1.010877664433984</v>
       </c>
       <c r="E6">
-        <v>1.012199701913814</v>
-      </c>
-      <c r="F6">
-        <v>1.028541436929155</v>
+        <v>0.9995806851772575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04403649099072</v>
+        <v>1.038366220564731</v>
       </c>
       <c r="J6">
-        <v>1.026750901334731</v>
+        <v>1.011796725964408</v>
       </c>
       <c r="K6">
-        <v>1.035692748703796</v>
+        <v>1.020588039335571</v>
       </c>
       <c r="L6">
-        <v>1.021895021491807</v>
-      </c>
-      <c r="M6">
-        <v>1.038054583168999</v>
+        <v>1.009421718885706</v>
       </c>
       <c r="N6">
-        <v>1.0282090053846</v>
+        <v>1.007856459063628</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005457844168912</v>
+        <v>0.9912547499507702</v>
       </c>
       <c r="D7">
-        <v>1.024087595495985</v>
+        <v>1.009857628749602</v>
       </c>
       <c r="E7">
-        <v>1.00999190530927</v>
-      </c>
-      <c r="F7">
-        <v>1.026168371808854</v>
+        <v>0.9983847760046065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043299358977281</v>
+        <v>1.038089319430776</v>
       </c>
       <c r="J7">
-        <v>1.024716920696003</v>
+        <v>1.010878663136033</v>
       </c>
       <c r="K7">
-        <v>1.033900836334923</v>
+        <v>1.019835557107261</v>
       </c>
       <c r="L7">
-        <v>1.019968252800398</v>
-      </c>
-      <c r="M7">
-        <v>1.03595800312797</v>
+        <v>1.008499726494363</v>
       </c>
       <c r="N7">
-        <v>1.026172136260065</v>
+        <v>1.007545731738474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9941311328266665</v>
+        <v>0.9848940841266554</v>
       </c>
       <c r="D8">
-        <v>1.015157645788547</v>
+        <v>1.005502813084325</v>
       </c>
       <c r="E8">
-        <v>1.000455804248874</v>
-      </c>
-      <c r="F8">
-        <v>1.015920758576931</v>
+        <v>0.9932876428527718</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040081374283154</v>
+        <v>1.036881991836534</v>
       </c>
       <c r="J8">
-        <v>1.015910959073565</v>
+        <v>1.00694973952669</v>
       </c>
       <c r="K8">
-        <v>1.026136138110405</v>
+        <v>1.016608757655769</v>
       </c>
       <c r="L8">
-        <v>1.011629604914143</v>
-      </c>
-      <c r="M8">
-        <v>1.026889306515641</v>
+        <v>1.004559311574054</v>
       </c>
       <c r="N8">
-        <v>1.017353669162065</v>
+        <v>1.006215174836526</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9725153254043122</v>
+        <v>0.9731166556899682</v>
       </c>
       <c r="D9">
-        <v>0.9981464256601021</v>
+        <v>0.9974605306538079</v>
       </c>
       <c r="E9">
-        <v>0.9823162723957428</v>
-      </c>
-      <c r="F9">
-        <v>0.9964379687754915</v>
+        <v>0.9839048734588083</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033829808766519</v>
+        <v>1.034557499079956</v>
       </c>
       <c r="J9">
-        <v>0.9990774191674444</v>
+        <v>0.9996558051118124</v>
       </c>
       <c r="K9">
-        <v>1.01126964757093</v>
+        <v>1.010594943782603</v>
       </c>
       <c r="L9">
-        <v>0.9957029230546677</v>
-      </c>
-      <c r="M9">
-        <v>1.009589103030005</v>
+        <v>0.9972645945446149</v>
       </c>
       <c r="N9">
-        <v>1.000496223698444</v>
+        <v>1.00374236579594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567357139952131</v>
+        <v>0.9648359992810471</v>
       </c>
       <c r="D10">
-        <v>0.9857631981455349</v>
+        <v>0.9918259530790542</v>
       </c>
       <c r="E10">
-        <v>0.9691264573863128</v>
-      </c>
-      <c r="F10">
-        <v>0.9822796975777823</v>
+        <v>0.9773493866913785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029197701031801</v>
+        <v>1.032866252823815</v>
       </c>
       <c r="J10">
-        <v>0.9867776189738738</v>
+        <v>0.9945177356174675</v>
       </c>
       <c r="K10">
-        <v>1.000394349807674</v>
+        <v>1.006344377668777</v>
       </c>
       <c r="L10">
-        <v>0.9840764517684184</v>
-      </c>
-      <c r="M10">
-        <v>0.99697644202973</v>
+        <v>0.9921400129410846</v>
       </c>
       <c r="N10">
-        <v>0.9881789563777916</v>
+        <v>1.001998936049142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9495078598904134</v>
+        <v>0.9611372264294976</v>
       </c>
       <c r="D11">
-        <v>0.9801031882547555</v>
+        <v>0.9893151829206313</v>
       </c>
       <c r="E11">
-        <v>0.9631004150900746</v>
-      </c>
-      <c r="F11">
-        <v>0.9758135307100322</v>
+        <v>0.9744320555717307</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027061589298172</v>
+        <v>1.032098104432434</v>
       </c>
       <c r="J11">
-        <v>0.9811432261843166</v>
+        <v>0.9922211356618983</v>
       </c>
       <c r="K11">
-        <v>0.9954103435982535</v>
+        <v>1.004441452020287</v>
       </c>
       <c r="L11">
-        <v>0.9787534472878116</v>
-      </c>
-      <c r="M11">
-        <v>0.9912064516390053</v>
+        <v>0.9898528088020828</v>
       </c>
       <c r="N11">
-        <v>0.9825365621041994</v>
+        <v>1.001219373532713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9467564649724346</v>
+        <v>0.9597452694626896</v>
       </c>
       <c r="D12">
-        <v>0.9779508229714406</v>
+        <v>0.9883713377914425</v>
       </c>
       <c r="E12">
-        <v>0.9608091650862716</v>
-      </c>
-      <c r="F12">
-        <v>0.97335532376193</v>
+        <v>0.9733358996207006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026246475926025</v>
+        <v>1.031807188759439</v>
       </c>
       <c r="J12">
-        <v>0.9789985610518017</v>
+        <v>0.9913566940975514</v>
       </c>
       <c r="K12">
-        <v>0.9935130032452316</v>
+        <v>1.003724767951942</v>
       </c>
       <c r="L12">
-        <v>0.9767277911604693</v>
-      </c>
-      <c r="M12">
-        <v>0.9890114381777337</v>
+        <v>0.9889924135591665</v>
       </c>
       <c r="N12">
-        <v>0.9803888513011999</v>
+        <v>1.000925908302487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9473497953960789</v>
+        <v>0.9600446845734293</v>
       </c>
       <c r="D13">
-        <v>0.9784148681663002</v>
+        <v>0.9885743137767365</v>
       </c>
       <c r="E13">
-        <v>0.9613031411395123</v>
-      </c>
-      <c r="F13">
-        <v>0.9738852762119895</v>
+        <v>0.973571607539492</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026422338236418</v>
+        <v>1.031869847698911</v>
       </c>
       <c r="J13">
-        <v>0.9794610410223806</v>
+        <v>0.9915426449269427</v>
       </c>
       <c r="K13">
-        <v>0.9939221587500882</v>
+        <v>1.003878953053971</v>
       </c>
       <c r="L13">
-        <v>0.9771645853030921</v>
-      </c>
-      <c r="M13">
-        <v>0.9894847164372796</v>
+        <v>0.9891774708864586</v>
       </c>
       <c r="N13">
-        <v>0.9808519880463841</v>
+        <v>1.000989037474225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9492818349909911</v>
+        <v>0.961022541860996</v>
       </c>
       <c r="D14">
-        <v>0.979926326124159</v>
+        <v>0.9892373970077246</v>
       </c>
       <c r="E14">
-        <v>0.9629121349539751</v>
-      </c>
-      <c r="F14">
-        <v>0.9756115230023534</v>
+        <v>0.9743417067882661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026994667050166</v>
+        <v>1.032074172573771</v>
       </c>
       <c r="J14">
-        <v>0.9809670391254951</v>
+        <v>0.9921499164667748</v>
       </c>
       <c r="K14">
-        <v>0.9952544788481558</v>
+        <v>1.00438241457833</v>
       </c>
       <c r="L14">
-        <v>0.9785870269506137</v>
-      </c>
-      <c r="M14">
-        <v>0.9910261021243193</v>
+        <v>0.9897819125933023</v>
       </c>
       <c r="N14">
-        <v>0.9823601248395452</v>
+        <v>1.001195196386151</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9504631574329626</v>
+        <v>0.9616226045979193</v>
       </c>
       <c r="D15">
-        <v>0.9808507904702271</v>
+        <v>0.9896444380933702</v>
       </c>
       <c r="E15">
-        <v>0.9638962935673278</v>
-      </c>
-      <c r="F15">
-        <v>0.9766674530065131</v>
+        <v>0.9748145083694765</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027344358515834</v>
+        <v>1.032199316476594</v>
       </c>
       <c r="J15">
-        <v>0.9818878910274867</v>
+        <v>0.9925225495937626</v>
       </c>
       <c r="K15">
-        <v>0.9960691059570124</v>
+        <v>1.004691293340047</v>
       </c>
       <c r="L15">
-        <v>0.9794568523424177</v>
-      </c>
-      <c r="M15">
-        <v>0.9919687613146673</v>
+        <v>0.9901528765796423</v>
       </c>
       <c r="N15">
-        <v>0.9832822844568608</v>
+        <v>1.001321694581673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9572064839649285</v>
+        <v>0.965079001078224</v>
       </c>
       <c r="D16">
-        <v>0.9861321305524727</v>
+        <v>0.9919910417015094</v>
       </c>
       <c r="E16">
-        <v>0.969519295900693</v>
-      </c>
-      <c r="F16">
-        <v>0.98270127905718</v>
+        <v>0.9775412827077681</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02933655122634</v>
+        <v>1.032916460031862</v>
       </c>
       <c r="J16">
-        <v>0.9871446107755</v>
+        <v>0.9946685910755453</v>
       </c>
       <c r="K16">
-        <v>1.000718941718133</v>
+        <v>1.006469313911561</v>
       </c>
       <c r="L16">
-        <v>0.9844232253818332</v>
-      </c>
-      <c r="M16">
-        <v>0.9973524332503091</v>
+        <v>0.9922903215801279</v>
       </c>
       <c r="N16">
-        <v>0.9885464693498703</v>
+        <v>1.002050137215616</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9613258364046383</v>
+        <v>0.9672160787547514</v>
       </c>
       <c r="D17">
-        <v>0.989361778548756</v>
+        <v>0.9934436153719359</v>
       </c>
       <c r="E17">
-        <v>0.9729585054321714</v>
-      </c>
-      <c r="F17">
-        <v>0.9863923924478315</v>
+        <v>0.979230154379865</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030549933222237</v>
+        <v>1.033356571050051</v>
       </c>
       <c r="J17">
-        <v>0.9903558495698742</v>
+        <v>0.9959951206835392</v>
       </c>
       <c r="K17">
-        <v>1.003558941353255</v>
+        <v>1.007567586709001</v>
       </c>
       <c r="L17">
-        <v>0.9874578858425381</v>
-      </c>
-      <c r="M17">
-        <v>1.000643294539016</v>
+        <v>0.9936124257087451</v>
       </c>
       <c r="N17">
-        <v>0.9917622684716672</v>
+        <v>1.002500336474406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9636910083319029</v>
+        <v>0.9684517545427532</v>
       </c>
       <c r="D18">
-        <v>0.9912172207120752</v>
+        <v>0.9942840712064163</v>
       </c>
       <c r="E18">
-        <v>0.974934593557209</v>
-      </c>
-      <c r="F18">
-        <v>0.9885134338305039</v>
+        <v>0.9802076950128029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031245256089459</v>
+        <v>1.033609838440335</v>
       </c>
       <c r="J18">
-        <v>0.992199558440255</v>
+        <v>0.9967619798177251</v>
       </c>
       <c r="K18">
-        <v>1.005189298291845</v>
+        <v>1.008202203876884</v>
       </c>
       <c r="L18">
-        <v>0.9892004852587174</v>
-      </c>
-      <c r="M18">
-        <v>1.002533430469536</v>
+        <v>0.9943770449827962</v>
       </c>
       <c r="N18">
-        <v>0.99360859562012</v>
+        <v>1.002760566297586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9644912983120197</v>
+        <v>0.9688712793406294</v>
       </c>
       <c r="D19">
-        <v>0.9918452132189196</v>
+        <v>0.994569507215683</v>
       </c>
       <c r="E19">
-        <v>0.975603465025362</v>
-      </c>
-      <c r="F19">
-        <v>0.9892314049522917</v>
+        <v>0.9805397508340249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031480293776158</v>
+        <v>1.033695618331824</v>
       </c>
       <c r="J19">
-        <v>0.9928233877586801</v>
+        <v>0.9970223088556737</v>
       </c>
       <c r="K19">
-        <v>1.005740901173278</v>
+        <v>1.008417590369593</v>
       </c>
       <c r="L19">
-        <v>0.9897901486242707</v>
-      </c>
-      <c r="M19">
-        <v>1.003173086665116</v>
+        <v>0.9946366675640009</v>
       </c>
       <c r="N19">
-        <v>0.9942333108477318</v>
+        <v>1.00284890277133</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9608878042186213</v>
+        <v>0.9669879197446805</v>
       </c>
       <c r="D20">
-        <v>0.9890182358822946</v>
+        <v>0.9932884759185115</v>
       </c>
       <c r="E20">
-        <v>0.9725926457113113</v>
-      </c>
-      <c r="F20">
-        <v>0.985999712797245</v>
+        <v>0.9790497401889624</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030421047633549</v>
+        <v>1.03330970877179</v>
       </c>
       <c r="J20">
-        <v>0.9900143865634976</v>
+        <v>0.9958535127367932</v>
       </c>
       <c r="K20">
-        <v>1.003256974634515</v>
+        <v>1.007450375004743</v>
       </c>
       <c r="L20">
-        <v>0.9871351705337066</v>
-      </c>
-      <c r="M20">
-        <v>1.000293290153759</v>
+        <v>0.9934712571034233</v>
       </c>
       <c r="N20">
-        <v>0.9914203205486553</v>
+        <v>1.002452280235478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9487148021764434</v>
+        <v>0.9607350949906458</v>
       </c>
       <c r="D21">
-        <v>0.9794826656635</v>
+        <v>0.9890424504332829</v>
       </c>
       <c r="E21">
-        <v>0.9624398369464164</v>
-      </c>
-      <c r="F21">
-        <v>0.9751047959746937</v>
+        <v>0.9741152834846153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026826747055762</v>
+        <v>1.032014160091109</v>
       </c>
       <c r="J21">
-        <v>0.9805250387130963</v>
+        <v>0.9919714093727822</v>
       </c>
       <c r="K21">
-        <v>0.9948634575160986</v>
+        <v>1.004234433715041</v>
       </c>
       <c r="L21">
-        <v>0.9781695362085076</v>
-      </c>
-      <c r="M21">
-        <v>0.9905736800645814</v>
+        <v>0.9896042232696002</v>
       </c>
       <c r="N21">
-        <v>0.9819174967358626</v>
+        <v>1.001134597082417</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9406709400748027</v>
+        <v>0.9566985692227672</v>
       </c>
       <c r="D22">
-        <v>0.9731947891464068</v>
+        <v>0.9863074970955888</v>
       </c>
       <c r="E22">
-        <v>0.955746702565181</v>
-      </c>
-      <c r="F22">
-        <v>0.9679247429680815</v>
+        <v>0.9709399191384112</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024440205297213</v>
+        <v>1.031167132951732</v>
       </c>
       <c r="J22">
-        <v>0.9742555656162816</v>
+        <v>0.9894643923214173</v>
       </c>
       <c r="K22">
-        <v>0.9893166448832629</v>
+        <v>1.002155174313719</v>
       </c>
       <c r="L22">
-        <v>0.972248931755608</v>
-      </c>
-      <c r="M22">
-        <v>0.9841595694554345</v>
+        <v>0.9871099121619362</v>
       </c>
       <c r="N22">
-        <v>0.9756391202681319</v>
+        <v>1.000283437504301</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9449749144717897</v>
+        <v>0.9588487503505978</v>
       </c>
       <c r="D23">
-        <v>0.9765578241506145</v>
+        <v>0.9877637408845261</v>
       </c>
       <c r="E23">
-        <v>0.9593263557911653</v>
-      </c>
-      <c r="F23">
-        <v>0.9717645815555719</v>
+        <v>0.9726303944444157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025718154364088</v>
+        <v>1.031619309303227</v>
       </c>
       <c r="J23">
-        <v>0.9776099476725808</v>
+        <v>0.9907998952155338</v>
       </c>
       <c r="K23">
-        <v>0.9922844712746999</v>
+        <v>1.003263026980078</v>
       </c>
       <c r="L23">
-        <v>0.9754163747008245</v>
-      </c>
-      <c r="M23">
-        <v>0.9875905971677909</v>
+        <v>0.988438365157727</v>
       </c>
       <c r="N23">
-        <v>0.9789982659317042</v>
+        <v>1.000736873464655</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9610858476972797</v>
+        <v>0.9670910484180539</v>
       </c>
       <c r="D24">
-        <v>0.9891735552735071</v>
+        <v>0.9933585977499463</v>
       </c>
       <c r="E24">
-        <v>0.9727580540957713</v>
-      </c>
-      <c r="F24">
-        <v>0.9861772460400829</v>
+        <v>0.979131284875862</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030479323719024</v>
+        <v>1.033330894439415</v>
       </c>
       <c r="J24">
-        <v>0.9901687693049507</v>
+        <v>0.9959175204996912</v>
       </c>
       <c r="K24">
-        <v>1.003393500910522</v>
+        <v>1.007503356394575</v>
       </c>
       <c r="L24">
-        <v>0.987281076197102</v>
-      </c>
-      <c r="M24">
-        <v>1.000451532426934</v>
+        <v>0.9935350652933506</v>
       </c>
       <c r="N24">
-        <v>0.9915749225313093</v>
+        <v>1.002474002071601</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9783238875837283</v>
+        <v>0.9762334142854239</v>
       </c>
       <c r="D25">
-        <v>1.002712832328203</v>
+        <v>0.9995858209520911</v>
       </c>
       <c r="E25">
-        <v>0.9871828126397316</v>
-      </c>
-      <c r="F25">
-        <v>1.001663589580994</v>
+        <v>0.9863810918136707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035521806117621</v>
+        <v>1.035182682300049</v>
       </c>
       <c r="J25">
-        <v>1.003603426639078</v>
+        <v>1.001587972903345</v>
       </c>
       <c r="K25">
-        <v>1.015269180535761</v>
+        <v>1.012190569921128</v>
       </c>
       <c r="L25">
-        <v>0.9999834118658468</v>
-      </c>
-      <c r="M25">
-        <v>1.014236135240111</v>
+        <v>0.9991945680502908</v>
       </c>
       <c r="N25">
-        <v>1.005028658619828</v>
+        <v>1.004397695304015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9832195549724349</v>
+        <v>1.017623197690867</v>
       </c>
       <c r="D2">
-        <v>1.004357563005517</v>
+        <v>1.02279594305572</v>
       </c>
       <c r="E2">
-        <v>0.9919492766283978</v>
+        <v>1.018992132068612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036558116540057</v>
+        <v>1.026719489015036</v>
       </c>
       <c r="J2">
-        <v>1.005914018206759</v>
+        <v>1.022836260980906</v>
       </c>
       <c r="K2">
-        <v>1.015756522049444</v>
+        <v>1.025629270358936</v>
       </c>
       <c r="L2">
-        <v>1.00352192208366</v>
+        <v>1.021836702599545</v>
       </c>
       <c r="N2">
-        <v>1.005864233182522</v>
+        <v>1.011683407944881</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9881302078850406</v>
+        <v>1.018647958511197</v>
       </c>
       <c r="D3">
-        <v>1.007717552453954</v>
+        <v>1.023509632671733</v>
       </c>
       <c r="E3">
-        <v>0.9958782495439862</v>
+        <v>1.019863083122803</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037500947544159</v>
+        <v>1.026847841497977</v>
       </c>
       <c r="J3">
-        <v>1.00894977012191</v>
+        <v>1.023496594028466</v>
       </c>
       <c r="K3">
-        <v>1.018252628998197</v>
+        <v>1.026149956389011</v>
       </c>
       <c r="L3">
-        <v>1.006564142021389</v>
+        <v>1.02251340393172</v>
       </c>
       <c r="N3">
-        <v>1.006892647656019</v>
+        <v>1.011904588546823</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9912374487809664</v>
+        <v>1.019311162922379</v>
       </c>
       <c r="D4">
-        <v>1.009845774474231</v>
+        <v>1.023971288540365</v>
       </c>
       <c r="E4">
-        <v>0.9983708825541476</v>
+        <v>1.020427135149274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038086087740777</v>
+        <v>1.026929445470069</v>
       </c>
       <c r="J4">
-        <v>1.010867988889404</v>
+        <v>1.023923447514811</v>
       </c>
       <c r="K4">
-        <v>1.019826804472319</v>
+        <v>1.026486058119088</v>
       </c>
       <c r="L4">
-        <v>1.008489009436697</v>
+        <v>1.02295113062842</v>
       </c>
       <c r="N4">
-        <v>1.007542118503001</v>
+        <v>1.012047480992211</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9925275513602715</v>
+        <v>1.019590001521214</v>
       </c>
       <c r="D5">
-        <v>1.01072983991417</v>
+        <v>1.024165331929493</v>
       </c>
       <c r="E5">
-        <v>0.9994073224844334</v>
+        <v>1.020664378719889</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038326237479626</v>
+        <v>1.026963404544207</v>
       </c>
       <c r="J5">
-        <v>1.011663732817021</v>
+        <v>1.024102794105646</v>
       </c>
       <c r="K5">
-        <v>1.020479070833199</v>
+        <v>1.026627158974945</v>
       </c>
       <c r="L5">
-        <v>1.009288125943351</v>
+        <v>1.023135115737427</v>
       </c>
       <c r="N5">
-        <v>1.007811450856683</v>
+        <v>1.012107498565619</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.992743234422704</v>
+        <v>1.019636821353119</v>
       </c>
       <c r="D6">
-        <v>1.010877664433984</v>
+        <v>1.024197910483183</v>
       </c>
       <c r="E6">
-        <v>0.9995806851772575</v>
+        <v>1.020704219743003</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038366220564731</v>
+        <v>1.026969086047836</v>
       </c>
       <c r="J6">
-        <v>1.011796725964408</v>
+        <v>1.02413290115276</v>
       </c>
       <c r="K6">
-        <v>1.020588039335571</v>
+        <v>1.026650838896389</v>
       </c>
       <c r="L6">
-        <v>1.009421718885706</v>
+        <v>1.023166005564224</v>
       </c>
       <c r="N6">
-        <v>1.007856459063628</v>
+        <v>1.012117572582065</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9912547499507702</v>
+        <v>1.019314888669737</v>
       </c>
       <c r="D7">
-        <v>1.009857628749602</v>
+        <v>1.023973881503321</v>
       </c>
       <c r="E7">
-        <v>0.9983847760046065</v>
+        <v>1.020430304754342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038089319430776</v>
+        <v>1.026929900597808</v>
       </c>
       <c r="J7">
-        <v>1.010878663136033</v>
+        <v>1.02392584435669</v>
       </c>
       <c r="K7">
-        <v>1.019835557107261</v>
+        <v>1.026487944287926</v>
       </c>
       <c r="L7">
-        <v>1.008499726494363</v>
+        <v>1.022953589185553</v>
       </c>
       <c r="N7">
-        <v>1.007545731738474</v>
+        <v>1.012048283164087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9848940841266554</v>
+        <v>1.017969496332596</v>
       </c>
       <c r="D8">
-        <v>1.005502813084325</v>
+        <v>1.023037168026617</v>
       </c>
       <c r="E8">
-        <v>0.9932876428527718</v>
+        <v>1.019286372413637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036881991836534</v>
+        <v>1.026763166040277</v>
       </c>
       <c r="J8">
-        <v>1.00694973952669</v>
+        <v>1.023059511506999</v>
       </c>
       <c r="K8">
-        <v>1.016608757655769</v>
+        <v>1.02580540735578</v>
       </c>
       <c r="L8">
-        <v>1.004559311574054</v>
+        <v>1.022065426477186</v>
       </c>
       <c r="N8">
-        <v>1.006215174836526</v>
+        <v>1.011758203644242</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9731166556899682</v>
+        <v>1.015599638031913</v>
       </c>
       <c r="D9">
-        <v>0.9974605306538079</v>
+        <v>1.021385464178808</v>
       </c>
       <c r="E9">
-        <v>0.9839048734588083</v>
+        <v>1.017274395178065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034557499079956</v>
+        <v>1.026458281903396</v>
       </c>
       <c r="J9">
-        <v>0.9996558051118124</v>
+        <v>1.021529684422721</v>
       </c>
       <c r="K9">
-        <v>1.010594943782603</v>
+        <v>1.024596465275399</v>
       </c>
       <c r="L9">
-        <v>0.9972645945446149</v>
+        <v>1.020499293212192</v>
       </c>
       <c r="N9">
-        <v>1.00374236579594</v>
+        <v>1.011245325419931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9648359992810471</v>
+        <v>1.014020343832037</v>
       </c>
       <c r="D10">
-        <v>0.9918259530790542</v>
+        <v>1.020283653267004</v>
       </c>
       <c r="E10">
-        <v>0.9773493866913785</v>
+        <v>1.01593566474768</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032866252823815</v>
+        <v>1.026247602974655</v>
       </c>
       <c r="J10">
-        <v>0.9945177356174675</v>
+        <v>1.020507655945194</v>
       </c>
       <c r="K10">
-        <v>1.006344377668777</v>
+        <v>1.023786360592629</v>
       </c>
       <c r="L10">
-        <v>0.9921400129410846</v>
+        <v>1.019454516635169</v>
       </c>
       <c r="N10">
-        <v>1.001998936049142</v>
+        <v>1.010902264179282</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9611372264294976</v>
+        <v>1.01333663812325</v>
       </c>
       <c r="D11">
-        <v>0.9893151829206313</v>
+        <v>1.019806409347626</v>
       </c>
       <c r="E11">
-        <v>0.9744320555717307</v>
+        <v>1.015356603006007</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032098104432434</v>
+        <v>1.026154621024324</v>
       </c>
       <c r="J11">
-        <v>0.9922211356618983</v>
+        <v>1.020064604325109</v>
       </c>
       <c r="K11">
-        <v>1.004441452020287</v>
+        <v>1.023434601997258</v>
       </c>
       <c r="L11">
-        <v>0.9898528088020828</v>
+        <v>1.019001960902855</v>
       </c>
       <c r="N11">
-        <v>1.001219373532713</v>
+        <v>1.010753446826148</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9597452694626896</v>
+        <v>1.013082700256922</v>
       </c>
       <c r="D12">
-        <v>0.9883713377914425</v>
+        <v>1.019629117744589</v>
       </c>
       <c r="E12">
-        <v>0.9733358996207006</v>
+        <v>1.015141607153567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031807188759439</v>
+        <v>1.026119819840696</v>
       </c>
       <c r="J12">
-        <v>0.9913566940975514</v>
+        <v>1.019899959574638</v>
       </c>
       <c r="K12">
-        <v>1.003724767951942</v>
+        <v>1.023303796889709</v>
       </c>
       <c r="L12">
-        <v>0.9889924135591665</v>
+        <v>1.018833837944998</v>
       </c>
       <c r="N12">
-        <v>1.000925908302487</v>
+        <v>1.01069812914622</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9600446845734293</v>
+        <v>1.013137169846926</v>
       </c>
       <c r="D13">
-        <v>0.9885743137767365</v>
+        <v>1.019667148373844</v>
       </c>
       <c r="E13">
-        <v>0.973571607539492</v>
+        <v>1.015187720253068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031869847698911</v>
+        <v>1.026127296733019</v>
       </c>
       <c r="J13">
-        <v>0.9915426449269427</v>
+        <v>1.019935279848697</v>
       </c>
       <c r="K13">
-        <v>1.003878953053971</v>
+        <v>1.023331861639927</v>
       </c>
       <c r="L13">
-        <v>0.9891774708864586</v>
+        <v>1.018869901950237</v>
       </c>
       <c r="N13">
-        <v>1.000989037474225</v>
+        <v>1.01070999679612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.961022541860996</v>
+        <v>1.013315647114262</v>
       </c>
       <c r="D14">
-        <v>0.9892373970077246</v>
+        <v>1.019791754810936</v>
       </c>
       <c r="E14">
-        <v>0.9743417067882661</v>
+        <v>1.015338829471106</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032074172573771</v>
+        <v>1.026151749721834</v>
       </c>
       <c r="J14">
-        <v>0.9921499164667748</v>
+        <v>1.020050996279346</v>
       </c>
       <c r="K14">
-        <v>1.00438241457833</v>
+        <v>1.023423792587234</v>
       </c>
       <c r="L14">
-        <v>0.9897819125933023</v>
+        <v>1.018988064285342</v>
       </c>
       <c r="N14">
-        <v>1.001195196386151</v>
+        <v>1.010748875070131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9616226045979193</v>
+        <v>1.013425615614791</v>
       </c>
       <c r="D15">
-        <v>0.9896444380933702</v>
+        <v>1.019868526067606</v>
       </c>
       <c r="E15">
-        <v>0.9748145083694765</v>
+        <v>1.015431945253245</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032199316476594</v>
+        <v>1.026166781103477</v>
       </c>
       <c r="J15">
-        <v>0.9925225495937626</v>
+        <v>1.020122282980251</v>
       </c>
       <c r="K15">
-        <v>1.004691293340047</v>
+        <v>1.02348041490985</v>
       </c>
       <c r="L15">
-        <v>0.9901528765796423</v>
+        <v>1.01906086488688</v>
       </c>
       <c r="N15">
-        <v>1.001321694581673</v>
+        <v>1.010772823925532</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.965079001078224</v>
+        <v>1.014065722056937</v>
       </c>
       <c r="D16">
-        <v>0.9919910417015094</v>
+        <v>1.020315323242093</v>
       </c>
       <c r="E16">
-        <v>0.9775412827077681</v>
+        <v>1.015974108236145</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032916460031862</v>
+        <v>1.02625373690197</v>
       </c>
       <c r="J16">
-        <v>0.9946685910755453</v>
+        <v>1.020537049188243</v>
       </c>
       <c r="K16">
-        <v>1.006469313911561</v>
+        <v>1.02380968510127</v>
       </c>
       <c r="L16">
-        <v>0.9922903215801279</v>
+        <v>1.019484547929548</v>
       </c>
       <c r="N16">
-        <v>1.002050137215616</v>
+        <v>1.010912135035372</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9672160787547514</v>
+        <v>1.014467281141817</v>
       </c>
       <c r="D17">
-        <v>0.9934436153719359</v>
+        <v>1.020595547144491</v>
       </c>
       <c r="E17">
-        <v>0.979230154379865</v>
+        <v>1.016314358539546</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033356571050051</v>
+        <v>1.026307811943675</v>
       </c>
       <c r="J17">
-        <v>0.9959951206835392</v>
+        <v>1.020797085774751</v>
       </c>
       <c r="K17">
-        <v>1.007567586709001</v>
+        <v>1.024015966213127</v>
       </c>
       <c r="L17">
-        <v>0.9936124257087451</v>
+        <v>1.019750270481991</v>
       </c>
       <c r="N17">
-        <v>1.002500336474406</v>
+        <v>1.010999449191395</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9684517545427532</v>
+        <v>1.014701517184884</v>
       </c>
       <c r="D18">
-        <v>0.9942840712064163</v>
+        <v>1.020758982225734</v>
       </c>
       <c r="E18">
-        <v>0.9802076950128029</v>
+        <v>1.016512880304692</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033609838440335</v>
+        <v>1.026339183491654</v>
       </c>
       <c r="J18">
-        <v>0.9967619798177251</v>
+        <v>1.020948711811783</v>
       </c>
       <c r="K18">
-        <v>1.008202203876884</v>
+        <v>1.024136192099032</v>
       </c>
       <c r="L18">
-        <v>0.9943770449827962</v>
+        <v>1.019905246422964</v>
       </c>
       <c r="N18">
-        <v>1.002760566297586</v>
+        <v>1.011050352037453</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9688712793406294</v>
+        <v>1.014781387899801</v>
       </c>
       <c r="D19">
-        <v>0.994569507215683</v>
+        <v>1.020814706828903</v>
       </c>
       <c r="E19">
-        <v>0.9805397508340249</v>
+        <v>1.016580581170345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033695618331824</v>
+        <v>1.026349851616192</v>
       </c>
       <c r="J19">
-        <v>0.9970223088556737</v>
+        <v>1.021000404063277</v>
       </c>
       <c r="K19">
-        <v>1.008417590369593</v>
+        <v>1.024177169989054</v>
       </c>
       <c r="L19">
-        <v>0.9946366675640009</v>
+        <v>1.019958086564313</v>
       </c>
       <c r="N19">
-        <v>1.00284890277133</v>
+        <v>1.011067704171964</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9669879197446805</v>
+        <v>1.014424196263998</v>
       </c>
       <c r="D20">
-        <v>0.9932884759185115</v>
+        <v>1.020565483293599</v>
       </c>
       <c r="E20">
-        <v>0.9790497401889624</v>
+        <v>1.016277846740492</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03330970877179</v>
+        <v>1.026302027733948</v>
       </c>
       <c r="J20">
-        <v>0.9958535127367932</v>
+        <v>1.020769191365063</v>
       </c>
       <c r="K20">
-        <v>1.007450375004743</v>
+        <v>1.02399384396141</v>
       </c>
       <c r="L20">
-        <v>0.9934712571034233</v>
+        <v>1.019721762569243</v>
       </c>
       <c r="N20">
-        <v>1.002452280235478</v>
+        <v>1.010990083899011</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9607350949906458</v>
+        <v>1.013263089431352</v>
       </c>
       <c r="D21">
-        <v>0.9890424504332829</v>
+        <v>1.019755061919573</v>
       </c>
       <c r="E21">
-        <v>0.9741152834846153</v>
+        <v>1.015294328987025</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032014160091109</v>
+        <v>1.026144556198411</v>
       </c>
       <c r="J21">
-        <v>0.9919714093727822</v>
+        <v>1.020016922759423</v>
       </c>
       <c r="K21">
-        <v>1.004234433715041</v>
+        <v>1.023396725248296</v>
       </c>
       <c r="L21">
-        <v>0.9896042232696002</v>
+        <v>1.018953269070349</v>
       </c>
       <c r="N21">
-        <v>1.001134597082417</v>
+        <v>1.010737427497928</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9566985692227672</v>
+        <v>1.012533176253563</v>
       </c>
       <c r="D22">
-        <v>0.9863074970955888</v>
+        <v>1.019245391239228</v>
       </c>
       <c r="E22">
-        <v>0.9709399191384112</v>
+        <v>1.014676493426588</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031167132951732</v>
+        <v>1.02604402296861</v>
       </c>
       <c r="J22">
-        <v>0.9894643923214173</v>
+        <v>1.019543504153504</v>
       </c>
       <c r="K22">
-        <v>1.002155174313719</v>
+        <v>1.023020446853417</v>
       </c>
       <c r="L22">
-        <v>0.9871099121619362</v>
+        <v>1.018469950367561</v>
       </c>
       <c r="N22">
-        <v>1.000283437504301</v>
+        <v>1.010578339395592</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9588487503505978</v>
+        <v>1.012920105598738</v>
       </c>
       <c r="D23">
-        <v>0.9877637408845261</v>
+        <v>1.019515588992959</v>
       </c>
       <c r="E23">
-        <v>0.9726303944444157</v>
+        <v>1.015003968222141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031619309303227</v>
+        <v>1.026097461932783</v>
       </c>
       <c r="J23">
-        <v>0.9907998952155338</v>
+        <v>1.019794513631347</v>
       </c>
       <c r="K23">
-        <v>1.003263026980078</v>
+        <v>1.023219999150245</v>
       </c>
       <c r="L23">
-        <v>0.988438365157727</v>
+        <v>1.018726179507829</v>
       </c>
       <c r="N23">
-        <v>1.000736873464655</v>
+        <v>1.010662697023618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9670910484180539</v>
+        <v>1.014443664424098</v>
       </c>
       <c r="D24">
-        <v>0.9933585977499463</v>
+        <v>1.020579067899451</v>
       </c>
       <c r="E24">
-        <v>0.979131284875862</v>
+        <v>1.016294344666953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033330894439415</v>
+        <v>1.026304641893112</v>
       </c>
       <c r="J24">
-        <v>0.9959175204996912</v>
+        <v>1.020781795799176</v>
       </c>
       <c r="K24">
-        <v>1.007503356394575</v>
+        <v>1.024003840346395</v>
       </c>
       <c r="L24">
-        <v>0.9935350652933506</v>
+        <v>1.01973464411587</v>
       </c>
       <c r="N24">
-        <v>1.002474002071601</v>
+        <v>1.010994315751924</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9762334142854239</v>
+        <v>1.016212196167205</v>
       </c>
       <c r="D25">
-        <v>0.9995858209520911</v>
+        <v>1.021812592656706</v>
       </c>
       <c r="E25">
-        <v>0.9863810918136707</v>
+        <v>1.017794086908304</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035182682300049</v>
+        <v>1.026538411871069</v>
       </c>
       <c r="J25">
-        <v>1.001587972903345</v>
+        <v>1.021925561672468</v>
       </c>
       <c r="K25">
-        <v>1.012190569921128</v>
+        <v>1.024909739124282</v>
       </c>
       <c r="L25">
-        <v>0.9991945680502908</v>
+        <v>1.020904300080484</v>
       </c>
       <c r="N25">
-        <v>1.004397695304015</v>
+        <v>1.011378119167733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017623197690867</v>
+        <v>0.9832195549724344</v>
       </c>
       <c r="D2">
-        <v>1.02279594305572</v>
+        <v>1.004357563005517</v>
       </c>
       <c r="E2">
-        <v>1.018992132068612</v>
+        <v>0.9919492766283972</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026719489015036</v>
+        <v>1.036558116540057</v>
       </c>
       <c r="J2">
-        <v>1.022836260980906</v>
+        <v>1.005914018206758</v>
       </c>
       <c r="K2">
-        <v>1.025629270358936</v>
+        <v>1.015756522049443</v>
       </c>
       <c r="L2">
-        <v>1.021836702599545</v>
+        <v>1.00352192208366</v>
       </c>
       <c r="N2">
-        <v>1.011683407944881</v>
+        <v>1.005864233182522</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018647958511197</v>
+        <v>0.9881302078850402</v>
       </c>
       <c r="D3">
-        <v>1.023509632671733</v>
+        <v>1.007717552453954</v>
       </c>
       <c r="E3">
-        <v>1.019863083122803</v>
+        <v>0.9958782495439861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026847841497977</v>
+        <v>1.037500947544159</v>
       </c>
       <c r="J3">
-        <v>1.023496594028466</v>
+        <v>1.00894977012191</v>
       </c>
       <c r="K3">
-        <v>1.026149956389011</v>
+        <v>1.018252628998197</v>
       </c>
       <c r="L3">
-        <v>1.02251340393172</v>
+        <v>1.006564142021389</v>
       </c>
       <c r="N3">
-        <v>1.011904588546823</v>
+        <v>1.006892647656019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019311162922379</v>
+        <v>0.9912374487809665</v>
       </c>
       <c r="D4">
-        <v>1.023971288540365</v>
+        <v>1.009845774474231</v>
       </c>
       <c r="E4">
-        <v>1.020427135149274</v>
+        <v>0.9983708825541476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026929445470069</v>
+        <v>1.038086087740777</v>
       </c>
       <c r="J4">
-        <v>1.023923447514811</v>
+        <v>1.010867988889405</v>
       </c>
       <c r="K4">
-        <v>1.026486058119088</v>
+        <v>1.019826804472319</v>
       </c>
       <c r="L4">
-        <v>1.02295113062842</v>
+        <v>1.008489009436697</v>
       </c>
       <c r="N4">
-        <v>1.012047480992211</v>
+        <v>1.007542118503001</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019590001521214</v>
+        <v>0.9925275513602717</v>
       </c>
       <c r="D5">
-        <v>1.024165331929493</v>
+        <v>1.01072983991417</v>
       </c>
       <c r="E5">
-        <v>1.020664378719889</v>
+        <v>0.9994073224844332</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026963404544207</v>
+        <v>1.038326237479626</v>
       </c>
       <c r="J5">
-        <v>1.024102794105646</v>
+        <v>1.011663732817021</v>
       </c>
       <c r="K5">
-        <v>1.026627158974945</v>
+        <v>1.0204790708332</v>
       </c>
       <c r="L5">
-        <v>1.023135115737427</v>
+        <v>1.009288125943351</v>
       </c>
       <c r="N5">
-        <v>1.012107498565619</v>
+        <v>1.007811450856684</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019636821353119</v>
+        <v>0.9927432344227041</v>
       </c>
       <c r="D6">
-        <v>1.024197910483183</v>
+        <v>1.010877664433984</v>
       </c>
       <c r="E6">
-        <v>1.020704219743003</v>
+        <v>0.9995806851772575</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026969086047836</v>
+        <v>1.038366220564731</v>
       </c>
       <c r="J6">
-        <v>1.02413290115276</v>
+        <v>1.011796725964408</v>
       </c>
       <c r="K6">
-        <v>1.026650838896389</v>
+        <v>1.020588039335571</v>
       </c>
       <c r="L6">
-        <v>1.023166005564224</v>
+        <v>1.009421718885706</v>
       </c>
       <c r="N6">
-        <v>1.012117572582065</v>
+        <v>1.007856459063629</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019314888669737</v>
+        <v>0.9912547499507701</v>
       </c>
       <c r="D7">
-        <v>1.023973881503321</v>
+        <v>1.009857628749602</v>
       </c>
       <c r="E7">
-        <v>1.020430304754342</v>
+        <v>0.9983847760046063</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026929900597808</v>
+        <v>1.038089319430776</v>
       </c>
       <c r="J7">
-        <v>1.02392584435669</v>
+        <v>1.010878663136033</v>
       </c>
       <c r="K7">
-        <v>1.026487944287926</v>
+        <v>1.019835557107261</v>
       </c>
       <c r="L7">
-        <v>1.022953589185553</v>
+        <v>1.008499726494363</v>
       </c>
       <c r="N7">
-        <v>1.012048283164087</v>
+        <v>1.007545731738474</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.017969496332596</v>
+        <v>0.9848940841266554</v>
       </c>
       <c r="D8">
-        <v>1.023037168026617</v>
+        <v>1.005502813084325</v>
       </c>
       <c r="E8">
-        <v>1.019286372413637</v>
+        <v>0.9932876428527717</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026763166040277</v>
+        <v>1.036881991836534</v>
       </c>
       <c r="J8">
-        <v>1.023059511506999</v>
+        <v>1.006949739526689</v>
       </c>
       <c r="K8">
-        <v>1.02580540735578</v>
+        <v>1.016608757655768</v>
       </c>
       <c r="L8">
-        <v>1.022065426477186</v>
+        <v>1.004559311574054</v>
       </c>
       <c r="N8">
-        <v>1.011758203644242</v>
+        <v>1.006215174836526</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015599638031913</v>
+        <v>0.973116655689969</v>
       </c>
       <c r="D9">
-        <v>1.021385464178808</v>
+        <v>0.9974605306538081</v>
       </c>
       <c r="E9">
-        <v>1.017274395178065</v>
+        <v>0.9839048734588086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026458281903396</v>
+        <v>1.034557499079956</v>
       </c>
       <c r="J9">
-        <v>1.021529684422721</v>
+        <v>0.9996558051118128</v>
       </c>
       <c r="K9">
-        <v>1.024596465275399</v>
+        <v>1.010594943782603</v>
       </c>
       <c r="L9">
-        <v>1.020499293212192</v>
+        <v>0.9972645945446151</v>
       </c>
       <c r="N9">
-        <v>1.011245325419931</v>
+        <v>1.003742365795941</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.014020343832037</v>
+        <v>0.9648359992810464</v>
       </c>
       <c r="D10">
-        <v>1.020283653267004</v>
+        <v>0.9918259530790531</v>
       </c>
       <c r="E10">
-        <v>1.01593566474768</v>
+        <v>0.9773493866913769</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026247602974655</v>
+        <v>1.032866252823815</v>
       </c>
       <c r="J10">
-        <v>1.020507655945194</v>
+        <v>0.9945177356174664</v>
       </c>
       <c r="K10">
-        <v>1.023786360592629</v>
+        <v>1.006344377668776</v>
       </c>
       <c r="L10">
-        <v>1.019454516635169</v>
+        <v>0.9921400129410832</v>
       </c>
       <c r="N10">
-        <v>1.010902264179282</v>
+        <v>1.001998936049142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01333663812325</v>
+        <v>0.9611372264294978</v>
       </c>
       <c r="D11">
-        <v>1.019806409347626</v>
+        <v>0.9893151829206311</v>
       </c>
       <c r="E11">
-        <v>1.015356603006007</v>
+        <v>0.9744320555717307</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026154621024324</v>
+        <v>1.032098104432434</v>
       </c>
       <c r="J11">
-        <v>1.020064604325109</v>
+        <v>0.9922211356618986</v>
       </c>
       <c r="K11">
-        <v>1.023434601997258</v>
+        <v>1.004441452020287</v>
       </c>
       <c r="L11">
-        <v>1.019001960902855</v>
+        <v>0.989852808802083</v>
       </c>
       <c r="N11">
-        <v>1.010753446826148</v>
+        <v>1.001219373532713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.013082700256922</v>
+        <v>0.9597452694626889</v>
       </c>
       <c r="D12">
-        <v>1.019629117744589</v>
+        <v>0.9883713377914418</v>
       </c>
       <c r="E12">
-        <v>1.015141607153567</v>
+        <v>0.9733358996206998</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026119819840696</v>
+        <v>1.031807188759439</v>
       </c>
       <c r="J12">
-        <v>1.019899959574638</v>
+        <v>0.9913566940975507</v>
       </c>
       <c r="K12">
-        <v>1.023303796889709</v>
+        <v>1.003724767951942</v>
       </c>
       <c r="L12">
-        <v>1.018833837944998</v>
+        <v>0.9889924135591658</v>
       </c>
       <c r="N12">
-        <v>1.01069812914622</v>
+        <v>1.000925908302487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013137169846926</v>
+        <v>0.960044684573429</v>
       </c>
       <c r="D13">
-        <v>1.019667148373844</v>
+        <v>0.988574313776736</v>
       </c>
       <c r="E13">
-        <v>1.015187720253068</v>
+        <v>0.9735716075394919</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026127296733019</v>
+        <v>1.031869847698911</v>
       </c>
       <c r="J13">
-        <v>1.019935279848697</v>
+        <v>0.9915426449269424</v>
       </c>
       <c r="K13">
-        <v>1.023331861639927</v>
+        <v>1.003878953053971</v>
       </c>
       <c r="L13">
-        <v>1.018869901950237</v>
+        <v>0.9891774708864585</v>
       </c>
       <c r="N13">
-        <v>1.01070999679612</v>
+        <v>1.000989037474225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013315647114262</v>
+        <v>0.9610225418609959</v>
       </c>
       <c r="D14">
-        <v>1.019791754810936</v>
+        <v>0.9892373970077245</v>
       </c>
       <c r="E14">
-        <v>1.015338829471106</v>
+        <v>0.9743417067882661</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026151749721834</v>
+        <v>1.032074172573771</v>
       </c>
       <c r="J14">
-        <v>1.020050996279346</v>
+        <v>0.9921499164667746</v>
       </c>
       <c r="K14">
-        <v>1.023423792587234</v>
+        <v>1.00438241457833</v>
       </c>
       <c r="L14">
-        <v>1.018988064285342</v>
+        <v>0.9897819125933023</v>
       </c>
       <c r="N14">
-        <v>1.010748875070131</v>
+        <v>1.001195196386151</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013425615614791</v>
+        <v>0.9616226045979187</v>
       </c>
       <c r="D15">
-        <v>1.019868526067606</v>
+        <v>0.98964443809337</v>
       </c>
       <c r="E15">
-        <v>1.015431945253245</v>
+        <v>0.9748145083694756</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026166781103477</v>
+        <v>1.032199316476594</v>
       </c>
       <c r="J15">
-        <v>1.020122282980251</v>
+        <v>0.9925225495937624</v>
       </c>
       <c r="K15">
-        <v>1.02348041490985</v>
+        <v>1.004691293340047</v>
       </c>
       <c r="L15">
-        <v>1.01906086488688</v>
+        <v>0.9901528765796418</v>
       </c>
       <c r="N15">
-        <v>1.010772823925532</v>
+        <v>1.001321694581672</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014065722056937</v>
+        <v>0.9650790010782245</v>
       </c>
       <c r="D16">
-        <v>1.020315323242093</v>
+        <v>0.99199104170151</v>
       </c>
       <c r="E16">
-        <v>1.015974108236145</v>
+        <v>0.9775412827077684</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02625373690197</v>
+        <v>1.032916460031862</v>
       </c>
       <c r="J16">
-        <v>1.020537049188243</v>
+        <v>0.9946685910755458</v>
       </c>
       <c r="K16">
-        <v>1.02380968510127</v>
+        <v>1.006469313911562</v>
       </c>
       <c r="L16">
-        <v>1.019484547929548</v>
+        <v>0.9922903215801282</v>
       </c>
       <c r="N16">
-        <v>1.010912135035372</v>
+        <v>1.002050137215616</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014467281141817</v>
+        <v>0.9672160787547496</v>
       </c>
       <c r="D17">
-        <v>1.020595547144491</v>
+        <v>0.9934436153719347</v>
       </c>
       <c r="E17">
-        <v>1.016314358539546</v>
+        <v>0.9792301543798634</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026307811943675</v>
+        <v>1.03335657105005</v>
       </c>
       <c r="J17">
-        <v>1.020797085774751</v>
+        <v>0.9959951206835376</v>
       </c>
       <c r="K17">
-        <v>1.024015966213127</v>
+        <v>1.007567586709</v>
       </c>
       <c r="L17">
-        <v>1.019750270481991</v>
+        <v>0.9936124257087433</v>
       </c>
       <c r="N17">
-        <v>1.010999449191395</v>
+        <v>1.002500336474406</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014701517184884</v>
+        <v>0.9684517545427535</v>
       </c>
       <c r="D18">
-        <v>1.020758982225734</v>
+        <v>0.9942840712064164</v>
       </c>
       <c r="E18">
-        <v>1.016512880304692</v>
+        <v>0.980207695012803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026339183491654</v>
+        <v>1.033609838440335</v>
       </c>
       <c r="J18">
-        <v>1.020948711811783</v>
+        <v>0.9967619798177253</v>
       </c>
       <c r="K18">
-        <v>1.024136192099032</v>
+        <v>1.008202203876884</v>
       </c>
       <c r="L18">
-        <v>1.019905246422964</v>
+        <v>0.9943770449827963</v>
       </c>
       <c r="N18">
-        <v>1.011050352037453</v>
+        <v>1.002760566297586</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014781387899801</v>
+        <v>0.9688712793406294</v>
       </c>
       <c r="D19">
-        <v>1.020814706828903</v>
+        <v>0.9945695072156829</v>
       </c>
       <c r="E19">
-        <v>1.016580581170345</v>
+        <v>0.9805397508340248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026349851616192</v>
+        <v>1.033695618331824</v>
       </c>
       <c r="J19">
-        <v>1.021000404063277</v>
+        <v>0.9970223088556737</v>
       </c>
       <c r="K19">
-        <v>1.024177169989054</v>
+        <v>1.008417590369593</v>
       </c>
       <c r="L19">
-        <v>1.019958086564313</v>
+        <v>0.9946366675640008</v>
       </c>
       <c r="N19">
-        <v>1.011067704171964</v>
+        <v>1.00284890277133</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014424196263998</v>
+        <v>0.9669879197446797</v>
       </c>
       <c r="D20">
-        <v>1.020565483293599</v>
+        <v>0.9932884759185112</v>
       </c>
       <c r="E20">
-        <v>1.016277846740492</v>
+        <v>0.9790497401889615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026302027733948</v>
+        <v>1.03330970877179</v>
       </c>
       <c r="J20">
-        <v>1.020769191365063</v>
+        <v>0.9958535127367929</v>
       </c>
       <c r="K20">
-        <v>1.02399384396141</v>
+        <v>1.007450375004742</v>
       </c>
       <c r="L20">
-        <v>1.019721762569243</v>
+        <v>0.9934712571034228</v>
       </c>
       <c r="N20">
-        <v>1.010990083899011</v>
+        <v>1.002452280235478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013263089431352</v>
+        <v>0.9607350949906462</v>
       </c>
       <c r="D21">
-        <v>1.019755061919573</v>
+        <v>0.9890424504332829</v>
       </c>
       <c r="E21">
-        <v>1.015294328987025</v>
+        <v>0.9741152834846154</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026144556198411</v>
+        <v>1.03201416009111</v>
       </c>
       <c r="J21">
-        <v>1.020016922759423</v>
+        <v>0.9919714093727823</v>
       </c>
       <c r="K21">
-        <v>1.023396725248296</v>
+        <v>1.004234433715041</v>
       </c>
       <c r="L21">
-        <v>1.018953269070349</v>
+        <v>0.9896042232696003</v>
       </c>
       <c r="N21">
-        <v>1.010737427497928</v>
+        <v>1.001134597082417</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.012533176253563</v>
+        <v>0.9566985692227667</v>
       </c>
       <c r="D22">
-        <v>1.019245391239228</v>
+        <v>0.9863074970955884</v>
       </c>
       <c r="E22">
-        <v>1.014676493426588</v>
+        <v>0.9709399191384105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02604402296861</v>
+        <v>1.031167132951731</v>
       </c>
       <c r="J22">
-        <v>1.019543504153504</v>
+        <v>0.9894643923214168</v>
       </c>
       <c r="K22">
-        <v>1.023020446853417</v>
+        <v>1.002155174313718</v>
       </c>
       <c r="L22">
-        <v>1.018469950367561</v>
+        <v>0.9871099121619357</v>
       </c>
       <c r="N22">
-        <v>1.010578339395592</v>
+        <v>1.000283437504301</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.012920105598738</v>
+        <v>0.9588487503505977</v>
       </c>
       <c r="D23">
-        <v>1.019515588992959</v>
+        <v>0.987763740884526</v>
       </c>
       <c r="E23">
-        <v>1.015003968222141</v>
+        <v>0.9726303944444151</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026097461932783</v>
+        <v>1.031619309303227</v>
       </c>
       <c r="J23">
-        <v>1.019794513631347</v>
+        <v>0.9907998952155337</v>
       </c>
       <c r="K23">
-        <v>1.023219999150245</v>
+        <v>1.003263026980078</v>
       </c>
       <c r="L23">
-        <v>1.018726179507829</v>
+        <v>0.9884383651577265</v>
       </c>
       <c r="N23">
-        <v>1.010662697023618</v>
+        <v>1.000736873464655</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014443664424098</v>
+        <v>0.9670910484180553</v>
       </c>
       <c r="D24">
-        <v>1.020579067899451</v>
+        <v>0.9933585977499473</v>
       </c>
       <c r="E24">
-        <v>1.016294344666953</v>
+        <v>0.9791312848758628</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026304641893112</v>
+        <v>1.033330894439415</v>
       </c>
       <c r="J24">
-        <v>1.020781795799176</v>
+        <v>0.9959175204996921</v>
       </c>
       <c r="K24">
-        <v>1.024003840346395</v>
+        <v>1.007503356394575</v>
       </c>
       <c r="L24">
-        <v>1.01973464411587</v>
+        <v>0.9935350652933513</v>
       </c>
       <c r="N24">
-        <v>1.010994315751924</v>
+        <v>1.002474002071601</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016212196167205</v>
+        <v>0.9762334142854251</v>
       </c>
       <c r="D25">
-        <v>1.021812592656706</v>
+        <v>0.9995858209520926</v>
       </c>
       <c r="E25">
-        <v>1.017794086908304</v>
+        <v>0.9863810918136718</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026538411871069</v>
+        <v>1.035182682300049</v>
       </c>
       <c r="J25">
-        <v>1.021925561672468</v>
+        <v>1.001587972903346</v>
       </c>
       <c r="K25">
-        <v>1.024909739124282</v>
+        <v>1.01219056992113</v>
       </c>
       <c r="L25">
-        <v>1.020904300080484</v>
+        <v>0.9991945680502919</v>
       </c>
       <c r="N25">
-        <v>1.011378119167733</v>
+        <v>1.004397695304015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9832195549724344</v>
+        <v>0.9982901390255816</v>
       </c>
       <c r="D2">
-        <v>1.004357563005517</v>
+        <v>1.022716042033933</v>
       </c>
       <c r="E2">
-        <v>0.9919492766283972</v>
+        <v>1.00481618202147</v>
+      </c>
+      <c r="F2">
+        <v>1.02966675932382</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036558116540057</v>
+        <v>1.04395525141239</v>
       </c>
       <c r="J2">
-        <v>1.005914018206758</v>
+        <v>1.020522112292165</v>
       </c>
       <c r="K2">
-        <v>1.015756522049443</v>
+        <v>1.033867723776862</v>
       </c>
       <c r="L2">
-        <v>1.00352192208366</v>
+        <v>1.016208825099004</v>
+      </c>
+      <c r="M2">
+        <v>1.040727699963548</v>
       </c>
       <c r="N2">
-        <v>1.005864233182522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010350961943203</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040805633065466</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035017646522764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9881302078850402</v>
+        <v>1.002798566978226</v>
       </c>
       <c r="D3">
-        <v>1.007717552453954</v>
+        <v>1.025635969203958</v>
       </c>
       <c r="E3">
-        <v>0.9958782495439861</v>
+        <v>1.008429996558036</v>
+      </c>
+      <c r="F3">
+        <v>1.032590060728181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037500947544159</v>
+        <v>1.044742241558611</v>
       </c>
       <c r="J3">
-        <v>1.00894977012191</v>
+        <v>1.023213229889183</v>
       </c>
       <c r="K3">
-        <v>1.018252628998197</v>
+        <v>1.03595101301823</v>
       </c>
       <c r="L3">
-        <v>1.006564142021389</v>
+        <v>1.018956138434896</v>
+      </c>
+      <c r="M3">
+        <v>1.042822258976708</v>
       </c>
       <c r="N3">
-        <v>1.006892647656019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011297678808237</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042463333485501</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036488051975439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9912374487809665</v>
+        <v>1.005659147039365</v>
       </c>
       <c r="D4">
-        <v>1.009845774474231</v>
+        <v>1.027492517050674</v>
       </c>
       <c r="E4">
-        <v>0.9983708825541476</v>
+        <v>1.010728955108218</v>
+      </c>
+      <c r="F4">
+        <v>1.034453376918083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038086087740777</v>
+        <v>1.045231369322687</v>
       </c>
       <c r="J4">
-        <v>1.010867988889405</v>
+        <v>1.02491919075909</v>
       </c>
       <c r="K4">
-        <v>1.019826804472319</v>
+        <v>1.037270079310026</v>
       </c>
       <c r="L4">
-        <v>1.008489009436697</v>
+        <v>1.020699592983281</v>
+      </c>
+      <c r="M4">
+        <v>1.044153029279856</v>
       </c>
       <c r="N4">
-        <v>1.007542118503001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011897259758813</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043516545333336</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037421653002072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9925275513602717</v>
+        <v>1.006853192528737</v>
       </c>
       <c r="D5">
-        <v>1.01072983991417</v>
+        <v>1.028270422608859</v>
       </c>
       <c r="E5">
-        <v>0.9994073224844332</v>
+        <v>1.011690537451264</v>
+      </c>
+      <c r="F5">
+        <v>1.035233791596912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038326237479626</v>
+        <v>1.045434723305846</v>
       </c>
       <c r="J5">
-        <v>1.011663732817021</v>
+        <v>1.025632600184863</v>
       </c>
       <c r="K5">
-        <v>1.0204790708332</v>
+        <v>1.037822857447643</v>
       </c>
       <c r="L5">
-        <v>1.009288125943351</v>
+        <v>1.021428771933142</v>
+      </c>
+      <c r="M5">
+        <v>1.04471036962274</v>
       </c>
       <c r="N5">
-        <v>1.007811450856684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012148434912054</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043957640876833</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037819708676533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9927432344227041</v>
+        <v>1.007058466869715</v>
       </c>
       <c r="D6">
-        <v>1.010877664433984</v>
+        <v>1.028406742999336</v>
       </c>
       <c r="E6">
-        <v>0.9995806851772575</v>
+        <v>1.011856617412646</v>
+      </c>
+      <c r="F6">
+        <v>1.035368878481934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038366220564731</v>
+        <v>1.045471587706381</v>
       </c>
       <c r="J6">
-        <v>1.011796725964408</v>
+        <v>1.025757319306865</v>
       </c>
       <c r="K6">
-        <v>1.020588039335571</v>
+        <v>1.037921361710934</v>
       </c>
       <c r="L6">
-        <v>1.009421718885706</v>
+        <v>1.021555839364886</v>
+      </c>
+      <c r="M6">
+        <v>1.044808002452764</v>
       </c>
       <c r="N6">
-        <v>1.007856459063629</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012193045016131</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044034910343281</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037898129516333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,69 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9912547499507701</v>
+        <v>1.005690131459661</v>
       </c>
       <c r="D7">
-        <v>1.009857628749602</v>
+        <v>1.027519507174779</v>
       </c>
       <c r="E7">
-        <v>0.9983847760046063</v>
+        <v>1.010755773354852</v>
+      </c>
+      <c r="F7">
+        <v>1.034475773734594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038089319430776</v>
+        <v>1.045242192708457</v>
       </c>
       <c r="J7">
-        <v>1.010878663136033</v>
+        <v>1.024943356778202</v>
       </c>
       <c r="K7">
-        <v>1.019835557107261</v>
+        <v>1.037293870935414</v>
       </c>
       <c r="L7">
-        <v>1.008499726494363</v>
+        <v>1.020723137556118</v>
+      </c>
+      <c r="M7">
+        <v>1.044172309553732</v>
       </c>
       <c r="N7">
-        <v>1.007545731738474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01190770413543</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043531804313734</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03745865038558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9848940841266554</v>
+        <v>0.9998448468191862</v>
       </c>
       <c r="D8">
-        <v>1.005502813084325</v>
+        <v>1.023730630830293</v>
       </c>
       <c r="E8">
-        <v>0.9932876428527717</v>
+        <v>1.006063590585131</v>
+      </c>
+      <c r="F8">
+        <v>1.030675726128128</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036881991836534</v>
+        <v>1.044235672414109</v>
       </c>
       <c r="J8">
-        <v>1.006949739526689</v>
+        <v>1.021457550697748</v>
       </c>
       <c r="K8">
-        <v>1.016608757655768</v>
+        <v>1.034598470766007</v>
       </c>
       <c r="L8">
-        <v>1.004559311574054</v>
+        <v>1.01716204838287</v>
+      </c>
+      <c r="M8">
+        <v>1.041455608605507</v>
       </c>
       <c r="N8">
-        <v>1.006215174836526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010682720536101</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041381723476764</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03555735785526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.973116655689969</v>
+        <v>0.9890635120653426</v>
       </c>
       <c r="D9">
-        <v>0.9974605306538081</v>
+        <v>1.016765051233181</v>
       </c>
       <c r="E9">
-        <v>0.9839048734588086</v>
+        <v>0.9974559168978202</v>
+      </c>
+      <c r="F9">
+        <v>1.02373420185224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034557499079956</v>
+        <v>1.042291065749751</v>
       </c>
       <c r="J9">
-        <v>0.9996558051118128</v>
+        <v>1.015008466103879</v>
       </c>
       <c r="K9">
-        <v>1.010594943782603</v>
+        <v>1.029591859506671</v>
       </c>
       <c r="L9">
-        <v>0.9972645945446151</v>
+        <v>1.010590405372677</v>
+      </c>
+      <c r="M9">
+        <v>1.036453596760855</v>
       </c>
       <c r="N9">
-        <v>1.003742365795941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008408860312026</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037422960423146</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03201411404826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9648359992810464</v>
+        <v>0.9816166246064586</v>
       </c>
       <c r="D10">
-        <v>0.9918259530790531</v>
+        <v>1.012016988635029</v>
       </c>
       <c r="E10">
-        <v>0.9773493866913769</v>
+        <v>0.9915581834973456</v>
+      </c>
+      <c r="F10">
+        <v>1.0190999548082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032866252823815</v>
+        <v>1.040925512765606</v>
       </c>
       <c r="J10">
-        <v>0.9945177356174664</v>
+        <v>1.010579086864691</v>
       </c>
       <c r="K10">
-        <v>1.006344377668776</v>
+        <v>1.026172610237309</v>
       </c>
       <c r="L10">
-        <v>0.9921400129410832</v>
+        <v>1.00608154890295</v>
+      </c>
+      <c r="M10">
+        <v>1.033132709446142</v>
       </c>
       <c r="N10">
-        <v>1.001998936049142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006854789481723</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034846350706957</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029613382922911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9611372264294978</v>
+        <v>0.9789403438145197</v>
       </c>
       <c r="D11">
-        <v>0.9893151829206311</v>
+        <v>1.010596907767171</v>
       </c>
       <c r="E11">
-        <v>0.9744320555717307</v>
+        <v>0.9895344265165024</v>
+      </c>
+      <c r="F11">
+        <v>1.018304038398455</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032098104432434</v>
+        <v>1.040639652745991</v>
       </c>
       <c r="J11">
-        <v>0.9922211356618986</v>
+        <v>1.009216253192079</v>
       </c>
       <c r="K11">
-        <v>1.004441452020287</v>
+        <v>1.025321711150724</v>
       </c>
       <c r="L11">
-        <v>0.989852808802083</v>
+        <v>1.004656444337914</v>
+      </c>
+      <c r="M11">
+        <v>1.032888830190622</v>
       </c>
       <c r="N11">
-        <v>1.001219373532713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006458787007675</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035091267082435</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029044855767673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597452694626889</v>
+        <v>0.9781572557599355</v>
       </c>
       <c r="D12">
-        <v>0.9883713377914418</v>
+        <v>1.01030019192245</v>
       </c>
       <c r="E12">
-        <v>0.9733358996206998</v>
+        <v>0.9889844902494825</v>
+      </c>
+      <c r="F12">
+        <v>1.018447039284904</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031807188759439</v>
+        <v>1.040647523167548</v>
       </c>
       <c r="J12">
-        <v>0.9913566940975507</v>
+        <v>1.008915696607663</v>
       </c>
       <c r="K12">
-        <v>1.003724767951942</v>
+        <v>1.025232681728022</v>
       </c>
       <c r="L12">
-        <v>0.9889924135591658</v>
+        <v>1.004325817323005</v>
+      </c>
+      <c r="M12">
+        <v>1.033229155917337</v>
       </c>
       <c r="N12">
-        <v>1.000925908302487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006419841296741</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03568789999267</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02898190814005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.960044684573429</v>
+        <v>0.9788012119542626</v>
       </c>
       <c r="D13">
-        <v>0.988574313776736</v>
+        <v>1.010871386635063</v>
       </c>
       <c r="E13">
-        <v>0.9735716075394919</v>
+        <v>0.9895494381138554</v>
+      </c>
+      <c r="F13">
+        <v>1.019352823842571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031869847698911</v>
+        <v>1.04089745267661</v>
       </c>
       <c r="J13">
-        <v>0.9915426449269424</v>
+        <v>1.009434636228126</v>
       </c>
       <c r="K13">
-        <v>1.003878953053971</v>
+        <v>1.025749885559213</v>
       </c>
       <c r="L13">
-        <v>0.9891774708864585</v>
+        <v>1.004834913759408</v>
+      </c>
+      <c r="M13">
+        <v>1.034075592965761</v>
       </c>
       <c r="N13">
-        <v>1.000989037474225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006663172177376</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036634531092778</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02934508153588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9610225418609959</v>
+        <v>0.9798970893486537</v>
       </c>
       <c r="D14">
-        <v>0.9892373970077245</v>
+        <v>1.01166303868638</v>
       </c>
       <c r="E14">
-        <v>0.9743417067882661</v>
+        <v>0.990448867539409</v>
+      </c>
+      <c r="F14">
+        <v>1.020329135211086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032074172573771</v>
+        <v>1.04118109753002</v>
       </c>
       <c r="J14">
-        <v>0.9921499164667746</v>
+        <v>1.010167652094298</v>
       </c>
       <c r="K14">
-        <v>1.00438241457833</v>
+        <v>1.026384993596267</v>
       </c>
       <c r="L14">
-        <v>0.9897819125933023</v>
+        <v>1.00557038899653</v>
+      </c>
+      <c r="M14">
+        <v>1.034894073862117</v>
       </c>
       <c r="N14">
-        <v>1.001195196386151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006961038481972</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037455176456334</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029795565688407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9616226045979187</v>
+        <v>0.9804818590309791</v>
       </c>
       <c r="D15">
-        <v>0.98964443809337</v>
+        <v>1.012055963331752</v>
       </c>
       <c r="E15">
-        <v>0.9748145083694756</v>
+        <v>0.9909178587443846</v>
+      </c>
+      <c r="F15">
+        <v>1.020754496322795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032199316476594</v>
+        <v>1.041308145676578</v>
       </c>
       <c r="J15">
-        <v>0.9925225495937624</v>
+        <v>1.010533620182178</v>
       </c>
       <c r="K15">
-        <v>1.004691293340047</v>
+        <v>1.026683362740806</v>
       </c>
       <c r="L15">
-        <v>0.9901528765796418</v>
+        <v>1.005940214849008</v>
+      </c>
+      <c r="M15">
+        <v>1.035225532339107</v>
       </c>
       <c r="N15">
-        <v>1.001321694581672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007098764655546</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037754756564051</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030012438887838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9650790010782245</v>
+        <v>0.9835140407513867</v>
       </c>
       <c r="D16">
-        <v>0.99199104170151</v>
+        <v>1.013963355287635</v>
       </c>
       <c r="E16">
-        <v>0.9775412827077684</v>
+        <v>0.9933009823781489</v>
+      </c>
+      <c r="F16">
+        <v>1.022583682120069</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032916460031862</v>
+        <v>1.041854721858296</v>
       </c>
       <c r="J16">
-        <v>0.9946685910755458</v>
+        <v>1.012318433298432</v>
       </c>
       <c r="K16">
-        <v>1.006469313911562</v>
+        <v>1.028049041035289</v>
       </c>
       <c r="L16">
-        <v>0.9922903215801282</v>
+        <v>1.007755215424176</v>
+      </c>
+      <c r="M16">
+        <v>1.036521294852726</v>
       </c>
       <c r="N16">
-        <v>1.002050137215616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007712952918572</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038740148776902</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030981219851918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9672160787547496</v>
+        <v>0.9852686942804082</v>
       </c>
       <c r="D17">
-        <v>0.9934436153719347</v>
+        <v>1.015014375276738</v>
       </c>
       <c r="E17">
-        <v>0.9792301543798634</v>
+        <v>0.9946621051249216</v>
+      </c>
+      <c r="F17">
+        <v>1.023471206958333</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03335657105005</v>
+        <v>1.042123580838583</v>
       </c>
       <c r="J17">
-        <v>0.9959951206835376</v>
+        <v>1.013304987121291</v>
       </c>
       <c r="K17">
-        <v>1.007567586709</v>
+        <v>1.028764171764444</v>
       </c>
       <c r="L17">
-        <v>0.9936124257087433</v>
+        <v>1.008764378802825</v>
+      </c>
+      <c r="M17">
+        <v>1.037079846737369</v>
       </c>
       <c r="N17">
-        <v>1.002500336474406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008028445568102</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039052412948836</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031489452726735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9684517545427535</v>
+        <v>0.986072042222926</v>
       </c>
       <c r="D18">
-        <v>0.9942840712064164</v>
+        <v>1.015394069795819</v>
       </c>
       <c r="E18">
-        <v>0.980207695012803</v>
+        <v>0.9952511620547891</v>
+      </c>
+      <c r="F18">
+        <v>1.023563160637469</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033609838440335</v>
+        <v>1.042164658090503</v>
       </c>
       <c r="J18">
-        <v>0.9967619798177253</v>
+        <v>1.013671757523272</v>
       </c>
       <c r="K18">
-        <v>1.008202203876884</v>
+        <v>1.028952268767454</v>
       </c>
       <c r="L18">
-        <v>0.9943770449827963</v>
+        <v>1.009152373212442</v>
+      </c>
+      <c r="M18">
+        <v>1.036987191745381</v>
       </c>
       <c r="N18">
-        <v>1.002760566297586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008105322781414</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03874105547229</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031610734309661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9688712793406294</v>
+        <v>0.9860304136431272</v>
       </c>
       <c r="D19">
-        <v>0.9945695072156829</v>
+        <v>1.015182414802399</v>
       </c>
       <c r="E19">
-        <v>0.9805397508340248</v>
+        <v>0.9951577964952424</v>
+      </c>
+      <c r="F19">
+        <v>1.022934902960804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033695618331824</v>
+        <v>1.042011583786723</v>
       </c>
       <c r="J19">
-        <v>0.9970223088556737</v>
+        <v>1.013493983435071</v>
       </c>
       <c r="K19">
-        <v>1.008417590369593</v>
+        <v>1.028680960473519</v>
       </c>
       <c r="L19">
-        <v>0.9946366675640008</v>
+        <v>1.008995644071527</v>
+      </c>
+      <c r="M19">
+        <v>1.036306668891215</v>
       </c>
       <c r="N19">
-        <v>1.00284890277133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007980450392903</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037876716007899</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03142534531258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9669879197446797</v>
+        <v>0.9835921172213236</v>
       </c>
       <c r="D20">
-        <v>0.9932884759185112</v>
+        <v>1.013293552346908</v>
       </c>
       <c r="E20">
-        <v>0.9790497401889615</v>
+        <v>0.993126172470512</v>
+      </c>
+      <c r="F20">
+        <v>1.020336751577179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03330970877179</v>
+        <v>1.041306737729448</v>
       </c>
       <c r="J20">
-        <v>0.9958535127367929</v>
+        <v>1.011770523468158</v>
       </c>
       <c r="K20">
-        <v>1.007450375004742</v>
+        <v>1.027106609985918</v>
       </c>
       <c r="L20">
-        <v>0.9934712571034228</v>
+        <v>1.007290976391783</v>
+      </c>
+      <c r="M20">
+        <v>1.034031187430461</v>
       </c>
       <c r="N20">
-        <v>1.002452280235478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007279348022946</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035546809138446</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030316160745846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9607350949906462</v>
+        <v>0.977862335873546</v>
       </c>
       <c r="D21">
-        <v>0.9890424504332829</v>
+        <v>1.009594557729685</v>
       </c>
       <c r="E21">
-        <v>0.9741152834846154</v>
+        <v>0.9885855783160682</v>
+      </c>
+      <c r="F21">
+        <v>1.016622436576841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03201416009111</v>
+        <v>1.040196424459312</v>
       </c>
       <c r="J21">
-        <v>0.9919714093727823</v>
+        <v>1.008315695148874</v>
       </c>
       <c r="K21">
-        <v>1.004234433715041</v>
+        <v>1.024396409975602</v>
       </c>
       <c r="L21">
-        <v>0.9896042232696003</v>
+        <v>1.003786475970641</v>
+      </c>
+      <c r="M21">
+        <v>1.031295589615427</v>
       </c>
       <c r="N21">
-        <v>1.001134597082417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006051217957696</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033340714327992</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028403184786179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9566985692227667</v>
+        <v>0.9741980862033904</v>
       </c>
       <c r="D22">
-        <v>0.9863074970955884</v>
+        <v>1.007246331540815</v>
       </c>
       <c r="E22">
-        <v>0.9709399191384105</v>
+        <v>0.9856933893409077</v>
+      </c>
+      <c r="F22">
+        <v>1.014311946234343</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031167132951731</v>
+        <v>1.03948391315665</v>
       </c>
       <c r="J22">
-        <v>0.9894643923214168</v>
+        <v>1.006114060676424</v>
       </c>
       <c r="K22">
-        <v>1.002155174313718</v>
+        <v>1.022675591132211</v>
       </c>
       <c r="L22">
-        <v>0.9871099121619357</v>
+        <v>1.00155369232467</v>
+      </c>
+      <c r="M22">
+        <v>1.029605114244212</v>
       </c>
       <c r="N22">
-        <v>1.000283437504301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005270237258776</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03200280167397</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027172851337377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9588487503505977</v>
+        <v>0.9761334497125587</v>
       </c>
       <c r="D23">
-        <v>0.987763740884526</v>
+        <v>1.008479567280306</v>
       </c>
       <c r="E23">
-        <v>0.9726303944444151</v>
+        <v>0.9872178511621024</v>
+      </c>
+      <c r="F23">
+        <v>1.015528983069705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031619309303227</v>
+        <v>1.039856033277945</v>
       </c>
       <c r="J23">
-        <v>0.9907998952155337</v>
+        <v>1.007271498193036</v>
       </c>
       <c r="K23">
-        <v>1.003263026980078</v>
+        <v>1.023575928986868</v>
       </c>
       <c r="L23">
-        <v>0.9884383651577265</v>
+        <v>1.002728055698906</v>
+      </c>
+      <c r="M23">
+        <v>1.030493122496484</v>
       </c>
       <c r="N23">
-        <v>1.000736873464655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005678608669105</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032705608728386</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027799715142314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9670910484180553</v>
+        <v>0.9836026706568989</v>
       </c>
       <c r="D24">
-        <v>0.9933585977499473</v>
+        <v>1.013263849468608</v>
       </c>
       <c r="E24">
-        <v>0.9791312848758628</v>
+        <v>0.993123298859778</v>
+      </c>
+      <c r="F24">
+        <v>1.020255502263672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033330894439415</v>
+        <v>1.04128061485007</v>
       </c>
       <c r="J24">
-        <v>0.9959175204996921</v>
+        <v>1.011746867952952</v>
       </c>
       <c r="K24">
-        <v>1.007503356394575</v>
+        <v>1.027061973186021</v>
       </c>
       <c r="L24">
-        <v>0.9935350652933513</v>
+        <v>1.007272262968401</v>
+      </c>
+      <c r="M24">
+        <v>1.033936006917029</v>
       </c>
       <c r="N24">
-        <v>1.002474002071601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007260529644883</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035430445515598</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030256989048659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9762334142854251</v>
+        <v>0.9919331527546948</v>
       </c>
       <c r="D25">
-        <v>0.9995858209520926</v>
+        <v>1.018625452547078</v>
       </c>
       <c r="E25">
-        <v>0.9863810918136718</v>
+        <v>0.9997442090380675</v>
+      </c>
+      <c r="F25">
+        <v>1.025576444163848</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035182682300049</v>
+        <v>1.042826406404315</v>
       </c>
       <c r="J25">
-        <v>1.001587972903346</v>
+        <v>1.016735082024219</v>
       </c>
       <c r="K25">
-        <v>1.01219056992113</v>
+        <v>1.030941352555873</v>
       </c>
       <c r="L25">
-        <v>0.9991945680502919</v>
+        <v>1.012346497129923</v>
+      </c>
+      <c r="M25">
+        <v>1.037790281398419</v>
       </c>
       <c r="N25">
-        <v>1.004397695304015</v>
+        <v>1.009021563074297</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038480860449122</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032997059685187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9982901390255816</v>
+        <v>0.9986080875117272</v>
       </c>
       <c r="D2">
-        <v>1.022716042033933</v>
+        <v>1.022578120377838</v>
       </c>
       <c r="E2">
-        <v>1.00481618202147</v>
+        <v>1.00512225884668</v>
       </c>
       <c r="F2">
-        <v>1.02966675932382</v>
+        <v>1.029567163178624</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04395525141239</v>
+        <v>1.043938573507382</v>
       </c>
       <c r="J2">
-        <v>1.020522112292165</v>
+        <v>1.020830510294884</v>
       </c>
       <c r="K2">
-        <v>1.033867723776862</v>
+        <v>1.033731618327157</v>
       </c>
       <c r="L2">
-        <v>1.016208825099004</v>
+        <v>1.016510690765356</v>
       </c>
       <c r="M2">
-        <v>1.040727699963548</v>
+        <v>1.040629393210274</v>
       </c>
       <c r="N2">
-        <v>1.010350961943203</v>
+        <v>1.012453430787563</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040805633065466</v>
+        <v>1.040727829890305</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035017646522764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034930222049729</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020943444831117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002798566978226</v>
+        <v>1.002853828016854</v>
       </c>
       <c r="D3">
-        <v>1.025635969203958</v>
+        <v>1.025232470057649</v>
       </c>
       <c r="E3">
-        <v>1.008429996558036</v>
+        <v>1.008504213892137</v>
       </c>
       <c r="F3">
-        <v>1.032590060728181</v>
+        <v>1.032298972885677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044742241558611</v>
+        <v>1.044609906259592</v>
       </c>
       <c r="J3">
-        <v>1.023213229889183</v>
+        <v>1.023266995985993</v>
       </c>
       <c r="K3">
-        <v>1.03595101301823</v>
+        <v>1.035552363649226</v>
       </c>
       <c r="L3">
-        <v>1.018956138434896</v>
+        <v>1.019029425924382</v>
       </c>
       <c r="M3">
-        <v>1.042822258976708</v>
+        <v>1.04253461119936</v>
       </c>
       <c r="N3">
-        <v>1.011297678808237</v>
+        <v>1.013132057694914</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042463333485501</v>
+        <v>1.042235680138127</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036488051975439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.0362147035092</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021340191461961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005659147039365</v>
+        <v>1.005550237960752</v>
       </c>
       <c r="D4">
-        <v>1.027492517050674</v>
+        <v>1.026922067037588</v>
       </c>
       <c r="E4">
-        <v>1.010728955108218</v>
+        <v>1.010658099883063</v>
       </c>
       <c r="F4">
-        <v>1.034453376918083</v>
+        <v>1.034042104863437</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045231369322687</v>
+        <v>1.045026301938777</v>
       </c>
       <c r="J4">
-        <v>1.02491919075909</v>
+        <v>1.024813025826341</v>
       </c>
       <c r="K4">
-        <v>1.037270079310026</v>
+        <v>1.036706071795849</v>
       </c>
       <c r="L4">
-        <v>1.020699592983281</v>
+        <v>1.020629570660922</v>
       </c>
       <c r="M4">
-        <v>1.044153029279856</v>
+        <v>1.043746324549964</v>
       </c>
       <c r="N4">
-        <v>1.011897259758813</v>
+        <v>1.013562395104935</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043516545333336</v>
+        <v>1.043194667076968</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037421653002072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037031460135679</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021589073346607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006853192528737</v>
+        <v>1.006676208408764</v>
       </c>
       <c r="D5">
-        <v>1.028270422608859</v>
+        <v>1.027630611679538</v>
       </c>
       <c r="E5">
-        <v>1.011690537451264</v>
+        <v>1.011559475524708</v>
       </c>
       <c r="F5">
-        <v>1.035233791596912</v>
+        <v>1.034772631702583</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045434723305846</v>
+        <v>1.045199400159808</v>
       </c>
       <c r="J5">
-        <v>1.025632600184863</v>
+        <v>1.025459940445792</v>
       </c>
       <c r="K5">
-        <v>1.037822857447643</v>
+        <v>1.037190079774339</v>
       </c>
       <c r="L5">
-        <v>1.021428771933142</v>
+        <v>1.0212992086631</v>
       </c>
       <c r="M5">
-        <v>1.04471036962274</v>
+        <v>1.044254194748005</v>
       </c>
       <c r="N5">
-        <v>1.012148434912054</v>
+        <v>1.013742829348884</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043957640876833</v>
+        <v>1.043596610680789</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037819708676533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037381597681484</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021693432055232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007058466869715</v>
+        <v>1.006869666586964</v>
       </c>
       <c r="D6">
-        <v>1.028406742999336</v>
+        <v>1.027754985892245</v>
       </c>
       <c r="E6">
-        <v>1.011856617412646</v>
+        <v>1.011715081655695</v>
       </c>
       <c r="F6">
-        <v>1.035368878481934</v>
+        <v>1.034899128302766</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045471587706381</v>
+        <v>1.045231011151591</v>
       </c>
       <c r="J6">
-        <v>1.025757319306865</v>
+        <v>1.025573108056997</v>
       </c>
       <c r="K6">
-        <v>1.037921361710934</v>
+        <v>1.037276736296515</v>
       </c>
       <c r="L6">
-        <v>1.021555839364886</v>
+        <v>1.021415914440807</v>
       </c>
       <c r="M6">
-        <v>1.044808002452764</v>
+        <v>1.044343306894182</v>
       </c>
       <c r="N6">
-        <v>1.012193045016131</v>
+        <v>1.013774919310872</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044034910343281</v>
+        <v>1.043667136664997</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037898129516333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03745250822063</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021712759667336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005690131459661</v>
+        <v>1.005590169416588</v>
       </c>
       <c r="D7">
-        <v>1.027519507174779</v>
+        <v>1.026954678229394</v>
       </c>
       <c r="E7">
-        <v>1.010755773354852</v>
+        <v>1.010693169689112</v>
       </c>
       <c r="F7">
-        <v>1.034475773734594</v>
+        <v>1.034068555778942</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045242192708457</v>
+        <v>1.04503976108366</v>
       </c>
       <c r="J7">
-        <v>1.024943356778202</v>
+        <v>1.02484591228509</v>
       </c>
       <c r="K7">
-        <v>1.037293870935414</v>
+        <v>1.03673541842173</v>
       </c>
       <c r="L7">
-        <v>1.020723137556118</v>
+        <v>1.020661269493716</v>
       </c>
       <c r="M7">
-        <v>1.044172309553732</v>
+        <v>1.043769612131823</v>
       </c>
       <c r="N7">
-        <v>1.01190770413543</v>
+        <v>1.013599458885702</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043531804313734</v>
+        <v>1.043213097567824</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03745865038558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037074380336117</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021598077523863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9998448468191862</v>
+        <v>1.000105540646338</v>
       </c>
       <c r="D8">
-        <v>1.023730630830293</v>
+        <v>1.023524173389779</v>
       </c>
       <c r="E8">
-        <v>1.006063590585131</v>
+        <v>1.006320487857546</v>
       </c>
       <c r="F8">
-        <v>1.030675726128128</v>
+        <v>1.030526689187296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044235672414109</v>
+        <v>1.044190004621049</v>
       </c>
       <c r="J8">
-        <v>1.021457550697748</v>
+        <v>1.021710681836963</v>
       </c>
       <c r="K8">
-        <v>1.034598470766007</v>
+        <v>1.034394650871469</v>
       </c>
       <c r="L8">
-        <v>1.01716204838287</v>
+        <v>1.017415519395411</v>
       </c>
       <c r="M8">
-        <v>1.041455608605507</v>
+        <v>1.041308443645601</v>
       </c>
       <c r="N8">
-        <v>1.010682720536101</v>
+        <v>1.012781154528613</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041381723476764</v>
+        <v>1.041265252410988</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03555735785526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035424311773961</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021093389455944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9890635120653426</v>
+        <v>0.9899742844908185</v>
       </c>
       <c r="D9">
-        <v>1.016765051233181</v>
+        <v>1.017207578345818</v>
       </c>
       <c r="E9">
-        <v>0.9974559168978202</v>
+        <v>0.9982856903752824</v>
       </c>
       <c r="F9">
-        <v>1.02373420185224</v>
+        <v>1.024054414683416</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042291065749751</v>
+        <v>1.042528187092651</v>
       </c>
       <c r="J9">
-        <v>1.015008466103879</v>
+        <v>1.015886112716788</v>
       </c>
       <c r="K9">
-        <v>1.029591859506671</v>
+        <v>1.030027510169586</v>
       </c>
       <c r="L9">
-        <v>1.010590405372677</v>
+        <v>1.011406642424768</v>
       </c>
       <c r="M9">
-        <v>1.036453596760855</v>
+        <v>1.036768919053026</v>
       </c>
       <c r="N9">
-        <v>1.008408860312026</v>
+        <v>1.011165986260218</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037422960423146</v>
+        <v>1.03767251790332</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03201411404826</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032332961187093</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02012614061574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9816166246064586</v>
+        <v>0.9830360890441108</v>
       </c>
       <c r="D10">
-        <v>1.012016988635029</v>
+        <v>1.012945831121526</v>
       </c>
       <c r="E10">
-        <v>0.9915581834973456</v>
+        <v>0.9928362507010168</v>
       </c>
       <c r="F10">
-        <v>1.0190999548082</v>
+        <v>1.01977306810538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040925512765606</v>
+        <v>1.04137483380842</v>
       </c>
       <c r="J10">
-        <v>1.010579086864691</v>
+        <v>1.011939309087648</v>
       </c>
       <c r="K10">
-        <v>1.026172610237309</v>
+        <v>1.027085213478785</v>
       </c>
       <c r="L10">
-        <v>1.00608154890295</v>
+        <v>1.007336064802468</v>
       </c>
       <c r="M10">
-        <v>1.033132709446142</v>
+        <v>1.033794261151887</v>
       </c>
       <c r="N10">
-        <v>1.006854789481723</v>
+        <v>1.010191566614743</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034846350706957</v>
+        <v>1.035369895573355</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029613382922911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030271155819567</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019473811849415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9789403438145197</v>
+        <v>0.9805618214238661</v>
       </c>
       <c r="D11">
-        <v>1.010596907767171</v>
+        <v>1.011698718547692</v>
       </c>
       <c r="E11">
-        <v>0.9895344265165024</v>
+        <v>0.9909880371053431</v>
       </c>
       <c r="F11">
-        <v>1.018304038398455</v>
+        <v>1.019101782735589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040639652745991</v>
+        <v>1.041157692808642</v>
       </c>
       <c r="J11">
-        <v>1.009216253192079</v>
+        <v>1.010766221715246</v>
       </c>
       <c r="K11">
-        <v>1.025321711150724</v>
+        <v>1.026403335728887</v>
       </c>
       <c r="L11">
-        <v>1.004656444337914</v>
+        <v>1.006081930792136</v>
       </c>
       <c r="M11">
-        <v>1.032888830190622</v>
+        <v>1.033672239436572</v>
       </c>
       <c r="N11">
-        <v>1.006458787007675</v>
+        <v>1.010157088194704</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035091267082435</v>
+        <v>1.035710934540292</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029044855767673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029825334721185</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019389789667223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9781572557599355</v>
+        <v>0.979820384731018</v>
       </c>
       <c r="D12">
-        <v>1.01030019192245</v>
+        <v>1.01143305403065</v>
       </c>
       <c r="E12">
-        <v>0.9889844902494825</v>
+        <v>0.9904711515885669</v>
       </c>
       <c r="F12">
-        <v>1.018447039284904</v>
+        <v>1.019266557386737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040647523167548</v>
+        <v>1.041172452997716</v>
       </c>
       <c r="J12">
-        <v>1.008915696607663</v>
+        <v>1.010504035379907</v>
       </c>
       <c r="K12">
-        <v>1.025232681728022</v>
+        <v>1.026344444492322</v>
       </c>
       <c r="L12">
-        <v>1.004325817323005</v>
+        <v>1.005783214947434</v>
       </c>
       <c r="M12">
-        <v>1.033229155917337</v>
+        <v>1.034033720670698</v>
       </c>
       <c r="N12">
-        <v>1.006419841296741</v>
+        <v>1.010233152279934</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03568789999267</v>
+        <v>1.036324084511126</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02898190814005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029783697053411</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019425083394552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9788012119542626</v>
+        <v>0.9803657344239971</v>
       </c>
       <c r="D13">
-        <v>1.010871386635063</v>
+        <v>1.011914085994434</v>
       </c>
       <c r="E13">
-        <v>0.9895494381138554</v>
+        <v>0.9909439485581414</v>
       </c>
       <c r="F13">
-        <v>1.019352823842571</v>
+        <v>1.020106422055866</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04089745267661</v>
+        <v>1.041375872267667</v>
       </c>
       <c r="J13">
-        <v>1.009434636228126</v>
+        <v>1.010929183470424</v>
       </c>
       <c r="K13">
-        <v>1.025749885559213</v>
+        <v>1.026773256154428</v>
       </c>
       <c r="L13">
-        <v>1.004834913759408</v>
+        <v>1.006202104566406</v>
       </c>
       <c r="M13">
-        <v>1.034075592965761</v>
+        <v>1.034815517101744</v>
       </c>
       <c r="N13">
-        <v>1.006663172177376</v>
+        <v>1.010367471904916</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036634531092778</v>
+        <v>1.037219455424637</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02934508153588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0300841254094</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019559661038035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9798970893486537</v>
+        <v>0.9813305611243872</v>
       </c>
       <c r="D14">
-        <v>1.01166303868638</v>
+        <v>1.012589194486444</v>
       </c>
       <c r="E14">
-        <v>0.990448867539409</v>
+        <v>0.9917237931151003</v>
       </c>
       <c r="F14">
-        <v>1.020329135211086</v>
+        <v>1.020998061413165</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04118109753002</v>
+        <v>1.041603794758445</v>
       </c>
       <c r="J14">
-        <v>1.010167652094298</v>
+        <v>1.011537974430382</v>
       </c>
       <c r="K14">
-        <v>1.026384993596267</v>
+        <v>1.027294201897232</v>
       </c>
       <c r="L14">
-        <v>1.00557038899653</v>
+        <v>1.006820668978981</v>
       </c>
       <c r="M14">
-        <v>1.034894073862117</v>
+        <v>1.035551024067096</v>
       </c>
       <c r="N14">
-        <v>1.006961038481972</v>
+        <v>1.010489414057405</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037455176456334</v>
+        <v>1.037974438045961</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029795565688407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030454021239571</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019699025258457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9804818590309791</v>
+        <v>0.9818532898571615</v>
       </c>
       <c r="D15">
-        <v>1.012055963331752</v>
+        <v>1.012927495293376</v>
       </c>
       <c r="E15">
-        <v>0.9909178587443846</v>
+        <v>0.9921369440027765</v>
       </c>
       <c r="F15">
-        <v>1.020754496322795</v>
+        <v>1.021383841285311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041308145676578</v>
+        <v>1.04170584852782</v>
       </c>
       <c r="J15">
-        <v>1.010533620182178</v>
+        <v>1.011845185164899</v>
       </c>
       <c r="K15">
-        <v>1.026683362740806</v>
+        <v>1.027539070723151</v>
       </c>
       <c r="L15">
-        <v>1.005940214849008</v>
+        <v>1.007135923432809</v>
       </c>
       <c r="M15">
-        <v>1.035225532339107</v>
+        <v>1.035843698355973</v>
       </c>
       <c r="N15">
-        <v>1.007098764655546</v>
+        <v>1.010537789219836</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037754756564051</v>
+        <v>1.038243349790552</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030012438887838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03063363152052</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019758433602994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9835140407513867</v>
+        <v>0.9846108086203802</v>
       </c>
       <c r="D16">
-        <v>1.013963355287635</v>
+        <v>1.014592366582598</v>
       </c>
       <c r="E16">
-        <v>0.9933009823781489</v>
+        <v>0.9942769275803307</v>
       </c>
       <c r="F16">
-        <v>1.022583682120069</v>
+        <v>1.023037662574931</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041854721858296</v>
+        <v>1.042147159828542</v>
       </c>
       <c r="J16">
-        <v>1.012318433298432</v>
+        <v>1.013369802760659</v>
       </c>
       <c r="K16">
-        <v>1.028049041035289</v>
+        <v>1.028667137557927</v>
       </c>
       <c r="L16">
-        <v>1.007755215424176</v>
+        <v>1.008713304330985</v>
       </c>
       <c r="M16">
-        <v>1.036521294852726</v>
+        <v>1.036967566486892</v>
       </c>
       <c r="N16">
-        <v>1.007712952918572</v>
+        <v>1.010740299203532</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038740148776902</v>
+        <v>1.03909288825853</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030981219851918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031434701910438</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019999796964359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9852686942804082</v>
+        <v>0.9862367904732592</v>
       </c>
       <c r="D17">
-        <v>1.015014375276738</v>
+        <v>1.015527403183738</v>
       </c>
       <c r="E17">
-        <v>0.9946621051249216</v>
+        <v>0.9955260877377106</v>
       </c>
       <c r="F17">
-        <v>1.023471206958333</v>
+        <v>1.023841460643887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042123580838583</v>
+        <v>1.042368250139547</v>
       </c>
       <c r="J17">
-        <v>1.013304987121291</v>
+        <v>1.014234339738906</v>
       </c>
       <c r="K17">
-        <v>1.028764171764444</v>
+        <v>1.029268550102129</v>
       </c>
       <c r="L17">
-        <v>1.008764378802825</v>
+        <v>1.00961301822375</v>
       </c>
       <c r="M17">
-        <v>1.037079846737369</v>
+        <v>1.037443988913719</v>
       </c>
       <c r="N17">
-        <v>1.008028445568102</v>
+        <v>1.010863191679146</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039052412948836</v>
+        <v>1.039340264879476</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031489452726735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031862774162695</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020113946632736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986072042222926</v>
+        <v>0.9870105517036453</v>
       </c>
       <c r="D18">
-        <v>1.015394069795819</v>
+        <v>1.015879910521078</v>
       </c>
       <c r="E18">
-        <v>0.9952511620547891</v>
+        <v>0.9960922706425082</v>
       </c>
       <c r="F18">
-        <v>1.023563160637469</v>
+        <v>1.023913954472047</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042164658090503</v>
+        <v>1.042402387604557</v>
       </c>
       <c r="J18">
-        <v>1.013671757523272</v>
+        <v>1.014573428491398</v>
       </c>
       <c r="K18">
-        <v>1.028952268767454</v>
+        <v>1.029430052431912</v>
       </c>
       <c r="L18">
-        <v>1.009152373212442</v>
+        <v>1.009978799235451</v>
       </c>
       <c r="M18">
-        <v>1.036987191745381</v>
+        <v>1.037332285771098</v>
       </c>
       <c r="N18">
-        <v>1.008105322781414</v>
+        <v>1.010880504987729</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03874105547229</v>
+        <v>1.039013906997717</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031610734309661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031964121353983</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020115694345111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9860304136431272</v>
+        <v>0.9870169788177421</v>
       </c>
       <c r="D19">
-        <v>1.015182414802399</v>
+        <v>1.015713189542986</v>
       </c>
       <c r="E19">
-        <v>0.9951577964952424</v>
+        <v>0.9960454164176606</v>
       </c>
       <c r="F19">
-        <v>1.022934902960804</v>
+        <v>1.023318512739681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042011583786723</v>
+        <v>1.04227512231156</v>
       </c>
       <c r="J19">
-        <v>1.013493983435071</v>
+        <v>1.014442049193089</v>
       </c>
       <c r="K19">
-        <v>1.028680960473519</v>
+        <v>1.029202975826839</v>
       </c>
       <c r="L19">
-        <v>1.008995644071527</v>
+        <v>1.00986785001094</v>
       </c>
       <c r="M19">
-        <v>1.036306668891215</v>
+        <v>1.036684069370106</v>
       </c>
       <c r="N19">
-        <v>1.007980450392903</v>
+        <v>1.010790369657987</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037876716007899</v>
+        <v>1.038175208821104</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03142534531258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031810629902259</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020021131175992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9835921172213236</v>
+        <v>0.984841769795206</v>
       </c>
       <c r="D20">
-        <v>1.013293552346908</v>
+        <v>1.01406934334622</v>
       </c>
       <c r="E20">
-        <v>0.993126172470512</v>
+        <v>0.9942529186898159</v>
       </c>
       <c r="F20">
-        <v>1.020336751577179</v>
+        <v>1.020898727680994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041306737729448</v>
+        <v>1.041687741665456</v>
       </c>
       <c r="J20">
-        <v>1.011770523468158</v>
+        <v>1.01296978562744</v>
       </c>
       <c r="K20">
-        <v>1.027106609985918</v>
+        <v>1.027869230856299</v>
       </c>
       <c r="L20">
-        <v>1.007290976391783</v>
+        <v>1.008397582005303</v>
       </c>
       <c r="M20">
-        <v>1.034031187430461</v>
+        <v>1.034583789545173</v>
       </c>
       <c r="N20">
-        <v>1.007279348022946</v>
+        <v>1.010380579349135</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035546809138446</v>
+        <v>1.035984137722479</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030316160745846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030871961337047</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019651262369104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.977862335873546</v>
+        <v>0.9796784458253555</v>
       </c>
       <c r="D21">
-        <v>1.009594557729685</v>
+        <v>1.010870450181128</v>
       </c>
       <c r="E21">
-        <v>0.9885855783160682</v>
+        <v>0.9902200991874083</v>
       </c>
       <c r="F21">
-        <v>1.016622436576841</v>
+        <v>1.017548010633577</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040196424459312</v>
+        <v>1.04080286830566</v>
       </c>
       <c r="J21">
-        <v>1.008315695148874</v>
+        <v>1.010051077904605</v>
       </c>
       <c r="K21">
-        <v>1.024396409975602</v>
+        <v>1.025648764192535</v>
       </c>
       <c r="L21">
-        <v>1.003786475970641</v>
+        <v>1.005389154214014</v>
       </c>
       <c r="M21">
-        <v>1.031295589615427</v>
+        <v>1.032204386234531</v>
       </c>
       <c r="N21">
-        <v>1.006051217957696</v>
+        <v>1.00999278686009</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033340714327992</v>
+        <v>1.034059972789146</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028403184786179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029305589125086</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019155163218377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9741980862033904</v>
+        <v>0.9763769179558225</v>
       </c>
       <c r="D22">
-        <v>1.007246331540815</v>
+        <v>1.008842734253682</v>
       </c>
       <c r="E22">
-        <v>0.9856933893409077</v>
+        <v>0.987653255193383</v>
       </c>
       <c r="F22">
-        <v>1.014311946234343</v>
+        <v>1.015470988703792</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03948391315665</v>
+        <v>1.040235162405575</v>
       </c>
       <c r="J22">
-        <v>1.006114060676424</v>
+        <v>1.008190143516797</v>
       </c>
       <c r="K22">
-        <v>1.022675591132211</v>
+        <v>1.0242410269018</v>
       </c>
       <c r="L22">
-        <v>1.00155369232467</v>
+        <v>1.003473336668212</v>
       </c>
       <c r="M22">
-        <v>1.029605114244212</v>
+        <v>1.030742068751338</v>
       </c>
       <c r="N22">
-        <v>1.005270237258776</v>
+        <v>1.009739884961268</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03200280167397</v>
+        <v>1.032902635131229</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027172851337377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028295339688276</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018840629856836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9761334497125587</v>
+        <v>0.9781016441909388</v>
       </c>
       <c r="D23">
-        <v>1.008479567280306</v>
+        <v>1.009892752671465</v>
       </c>
       <c r="E23">
-        <v>0.9872178511621024</v>
+        <v>0.9889880228473097</v>
       </c>
       <c r="F23">
-        <v>1.015528983069705</v>
+        <v>1.016554551256198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039856033277945</v>
+        <v>1.040524082558909</v>
       </c>
       <c r="J23">
-        <v>1.007271498193036</v>
+        <v>1.009149717453637</v>
       </c>
       <c r="K23">
-        <v>1.023575928986868</v>
+        <v>1.024962414696669</v>
       </c>
       <c r="L23">
-        <v>1.002728055698906</v>
+        <v>1.004462879477782</v>
       </c>
       <c r="M23">
-        <v>1.030493122496484</v>
+        <v>1.031499653876943</v>
       </c>
       <c r="N23">
-        <v>1.005678608669105</v>
+        <v>1.009823529215018</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032705608728386</v>
+        <v>1.033502219115599</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027799715142314</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.028794735794354</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018998524225293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9836026706568989</v>
+        <v>0.9848574852553829</v>
       </c>
       <c r="D24">
-        <v>1.013263849468608</v>
+        <v>1.014044337823032</v>
       </c>
       <c r="E24">
-        <v>0.993123298859778</v>
+        <v>0.9942551849375485</v>
       </c>
       <c r="F24">
-        <v>1.020255502263672</v>
+        <v>1.020820958462391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04128061485007</v>
+        <v>1.041664675103313</v>
       </c>
       <c r="J24">
-        <v>1.011746867952952</v>
+        <v>1.012951157279069</v>
       </c>
       <c r="K24">
-        <v>1.027061973186021</v>
+        <v>1.027829227762022</v>
       </c>
       <c r="L24">
-        <v>1.007272262968401</v>
+        <v>1.008383942687568</v>
       </c>
       <c r="M24">
-        <v>1.033936006917029</v>
+        <v>1.034492041275323</v>
       </c>
       <c r="N24">
-        <v>1.007260529644883</v>
+        <v>1.010364074969768</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035430445515598</v>
+        <v>1.035870512416304</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030256989048659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03081340800499</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01963374660971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9919331527546948</v>
+        <v>0.9926534740806605</v>
       </c>
       <c r="D25">
-        <v>1.018625452547078</v>
+        <v>1.018883663370665</v>
       </c>
       <c r="E25">
-        <v>0.9997442090380675</v>
+        <v>1.00040565115777</v>
       </c>
       <c r="F25">
-        <v>1.025576444163848</v>
+        <v>1.02576316721679</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042826406404315</v>
+        <v>1.042982574930365</v>
       </c>
       <c r="J25">
-        <v>1.016735082024219</v>
+        <v>1.017430633043261</v>
       </c>
       <c r="K25">
-        <v>1.030941352555873</v>
+        <v>1.03119574037376</v>
       </c>
       <c r="L25">
-        <v>1.012346497129923</v>
+        <v>1.012997673176655</v>
       </c>
       <c r="M25">
-        <v>1.037790281398419</v>
+        <v>1.037974286956858</v>
       </c>
       <c r="N25">
-        <v>1.009021563074297</v>
+        <v>1.011565775397881</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038480860449122</v>
+        <v>1.03862648890604</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032997059685187</v>
+        <v>1.033190527907582</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020389072641402</v>
       </c>
     </row>
   </sheetData>
